--- a/src/test/resources/org/nexial/core/utils/script_good.xlsx
+++ b/src/test/resources/org/nexial/core/utils/script_good.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10305"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43814563-ABCD-A04B-981D-9950544EFB78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{43814563-ABCD-A04B-981D-9950544EFB78}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5200" windowWidth="33600" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="15720" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="5200" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Test Scenrio" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Test Scenrio" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -34,13 +34,15 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$21</definedName>
-    <definedName name="web">'#system'!$Q$2:$Q$108</definedName>
-    <definedName name="webalert">'#system'!$R$2:$R$6</definedName>
-    <definedName name="webcookie">'#system'!$S$2:$S$8</definedName>
-    <definedName name="ws">'#system'!$T$2:$T$16</definedName>
-    <definedName name="xml">'#system'!$U$2:$U$11</definedName>
+    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$23</definedName>
+    <definedName name="web">'#system'!$S$2:$S$108</definedName>
+    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
+    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
+    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
+    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="step">'#system'!$R$2:$R$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="428">
   <si>
     <t>description</t>
   </si>
@@ -1288,13 +1290,65 @@
   </si>
   <si>
     <t>test id</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>append(profile,key,value)</t>
+  </si>
+  <si>
+    <t>assertKeyExists(profile,key)</t>
+  </si>
+  <si>
+    <t>delete(profile,key)</t>
+  </si>
+  <si>
+    <t>flushAll(profile)</t>
+  </si>
+  <si>
+    <t>flushDb(profile)</t>
+  </si>
+  <si>
+    <t>rename(profile,current,new)</t>
+  </si>
+  <si>
+    <t>set(profile,key,value)</t>
+  </si>
+  <si>
+    <t>store(var,profile,key)</t>
+  </si>
+  <si>
+    <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
+  <si>
+    <t>observe(prompt)</t>
+  </si>
+  <si>
+    <t>perform(instructions)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1365,8 +1419,84 @@
       <sz val="11"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1385,8 +1515,127 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1477,139 +1726,369 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="47">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="19" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1662,7 +2141,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1687,10 +2166,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1725,7 +2204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1760,7 +2239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1854,21 +2333,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1885,7 +2364,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1937,26 +2416,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2003,25 +2482,31 @@
         <v>70</v>
       </c>
       <c r="P1" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2059,7 +2544,7 @@
         <v>228</v>
       </c>
       <c r="M2" t="s">
-        <v>229</v>
+        <v>415</v>
       </c>
       <c r="N2" t="s">
         <v>236</v>
@@ -2068,25 +2553,31 @@
         <v>251</v>
       </c>
       <c r="P2" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q2" t="s">
         <v>256</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>425</v>
+      </c>
+      <c r="S2" t="s">
         <v>264</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>370</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>375</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2130,25 +2621,31 @@
         <v>252</v>
       </c>
       <c r="P3" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q3" t="s">
         <v>257</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>426</v>
+      </c>
+      <c r="S3" t="s">
         <v>265</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>371</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>376</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2189,25 +2686,31 @@
         <v>253</v>
       </c>
       <c r="P4" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q4" t="s">
         <v>258</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>427</v>
+      </c>
+      <c r="S4" t="s">
         <v>266</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>372</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>377</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>384</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2242,25 +2745,28 @@
         <v>254</v>
       </c>
       <c r="P5" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q5" t="s">
         <v>259</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>267</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>373</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>378</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>385</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2292,25 +2798,28 @@
         <v>255</v>
       </c>
       <c r="P6" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q6" t="s">
         <v>260</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>268</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>374</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>379</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>386</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2339,22 +2848,25 @@
         <v>241</v>
       </c>
       <c r="P7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q7" t="s">
         <v>261</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>269</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>380</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>387</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2383,22 +2895,25 @@
         <v>242</v>
       </c>
       <c r="P8" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q8" t="s">
         <v>262</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>270</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>381</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>388</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2424,19 +2939,22 @@
         <v>243</v>
       </c>
       <c r="P9" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q9" t="s">
         <v>263</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>271</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>389</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2458,17 +2976,20 @@
       <c r="N10" t="s">
         <v>244</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="P10" t="s">
+        <v>424</v>
+      </c>
+      <c r="S10" t="s">
         <v>272</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>390</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2490,17 +3011,17 @@
       <c r="N11" t="s">
         <v>245</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>273</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>391</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2519,14 +3040,14 @@
       <c r="N12" t="s">
         <v>246</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>274</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2545,14 +3066,14 @@
       <c r="N13" t="s">
         <v>247</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>275</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2571,14 +3092,14 @@
       <c r="N14" t="s">
         <v>248</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>276</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2594,16 +3115,16 @@
       <c r="N15" t="s">
         <v>249</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>277</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>411</v>
       </c>
       <c r="C16" t="s">
         <v>94</v>
@@ -2617,16 +3138,16 @@
       <c r="N16" t="s">
         <v>250</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>278</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
         <v>95</v>
@@ -2637,13 +3158,13 @@
       <c r="I17" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="C18" t="s">
         <v>96</v>
@@ -2654,13 +3175,13 @@
       <c r="I18" t="s">
         <v>221</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
         <v>97</v>
@@ -2671,13 +3192,13 @@
       <c r="I19" t="s">
         <v>222</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
         <v>98</v>
@@ -2688,13 +3209,13 @@
       <c r="I20" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
         <v>99</v>
@@ -2705,715 +3226,721 @@
       <c r="I21" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
       <c r="C22" t="s">
         <v>100</v>
       </c>
       <c r="E22" t="s">
         <v>133</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" t="s">
         <v>101</v>
       </c>
       <c r="E23" t="s">
         <v>134</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>102</v>
       </c>
       <c r="E24" t="s">
         <v>135</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>103</v>
       </c>
       <c r="E25" t="s">
         <v>136</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>104</v>
       </c>
       <c r="E26" t="s">
         <v>137</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>138</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>139</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>140</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="S29" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>108</v>
       </c>
       <c r="E30" t="s">
         <v>141</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="S30" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>142</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>143</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="S32" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>144</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>145</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="S34" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>146</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="S35" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>147</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="S36" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>148</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="S37" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>149</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>150</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="S39" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>151</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="S40" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>152</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="S41" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>153</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="S42" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>154</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="S43" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>155</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="S44" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>156</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="S45" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>157</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>158</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="S47" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>159</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="S48" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>160</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="S49" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>161</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="S50" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>162</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="S51" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q52" t="s">
+        <v>165</v>
+      </c>
+      <c r="S52" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q53" t="s">
+        <v>166</v>
+      </c>
+      <c r="S53" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q54" t="s">
+        <v>167</v>
+      </c>
+      <c r="S54" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q55" t="s">
+        <v>168</v>
+      </c>
+      <c r="S55" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q56" t="s">
+        <v>169</v>
+      </c>
+      <c r="S56" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q57" t="s">
+        <v>170</v>
+      </c>
+      <c r="S57" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q58" t="s">
+        <v>171</v>
+      </c>
+      <c r="S58" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q59" t="s">
+        <v>172</v>
+      </c>
+      <c r="S59" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q60" t="s">
+        <v>173</v>
+      </c>
+      <c r="S60" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q61" t="s">
+        <v>174</v>
+      </c>
+      <c r="S61" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q62" t="s">
+        <v>175</v>
+      </c>
+      <c r="S62" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="63" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q63" t="s">
+        <v>176</v>
+      </c>
+      <c r="S63" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q64" t="s">
+        <v>177</v>
+      </c>
+      <c r="S64" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q65" t="s">
+        <v>178</v>
+      </c>
+      <c r="S65" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q66" t="s">
+        <v>179</v>
+      </c>
+      <c r="S66" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q67" t="s">
+        <v>180</v>
+      </c>
+      <c r="S67" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q68" t="s">
+        <v>181</v>
+      </c>
+      <c r="S68" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q69" t="s">
+        <v>413</v>
+      </c>
+      <c r="S69" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q70" t="s">
+        <v>182</v>
+      </c>
+      <c r="S70" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q71" t="s">
+        <v>414</v>
+      </c>
+      <c r="S71" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>183</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="S72" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>184</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="S73" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>185</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="S74" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>186</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="S75" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>187</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="S76" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>188</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="S77" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>189</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="S78" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>190</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="S79" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>191</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="S80" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="81" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>192</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="S81" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="82" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>193</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="S82" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="83" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>194</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="S83" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="84" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>195</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="S84" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="85" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>196</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="S85" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>197</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="S86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>198</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="S87" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>199</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="S88" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="89" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>200</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="S89" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="90" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>201</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="S90" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>202</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="S91" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="92" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q92" t="s">
+    <row r="92">
+      <c r="S92" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="93" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q93" t="s">
+    <row r="93">
+      <c r="S93" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="94" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q94" t="s">
+    <row r="94">
+      <c r="S94" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="95" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q95" t="s">
+    <row r="95">
+      <c r="S95" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="96" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q96" t="s">
+    <row r="96">
+      <c r="S96" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="97" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q97" t="s">
+    <row r="97">
+      <c r="S97" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="98" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q98" t="s">
+    <row r="98">
+      <c r="S98" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="99" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q99" t="s">
+    <row r="99">
+      <c r="S99" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="100" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q100" t="s">
+    <row r="100">
+      <c r="S100" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="101" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q101" t="s">
+    <row r="101">
+      <c r="S101" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="102" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q102" t="s">
+    <row r="102">
+      <c r="S102" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="103" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q103" t="s">
+    <row r="103">
+      <c r="S103" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q104" t="s">
+    <row r="104">
+      <c r="S104" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q105" t="s">
+    <row r="105">
+      <c r="S105" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="106" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q106" t="s">
+    <row r="106">
+      <c r="S106" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="107" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q107" t="s">
+    <row r="107">
+      <c r="S107" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q108" t="s">
+    <row r="108">
+      <c r="S108" t="s">
         <v>369</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O697"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <selection sqref="A5" activeCell="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="56" style="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.33203125" style="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.6640625" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.6640625" style="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6640625" style="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="14" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.83203125" style="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.83203125" style="20" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.83203125" style="19" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="11" width="23.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="11" width="56.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="10.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="44.6640625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="13" width="18.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="14" width="18.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="14" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="19" width="17.83203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="20" width="17.83203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="19" width="17.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="14" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="5" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3971,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>59</v>
       </c>
@@ -3469,7 +3996,7 @@
       <c r="N2" s="28"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="15"/>
@@ -3486,7 +4013,7 @@
       <c r="N3" s="18"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="7" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>407</v>
       </c>
@@ -3531,7 +4058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -3560,7 +4087,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>53</v>
@@ -3587,7 +4114,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="30" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="16"/>
@@ -3604,7 +4131,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="16"/>
@@ -3621,7 +4148,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="16"/>
@@ -3638,7 +4165,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="16"/>
@@ -3655,7 +4182,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="16"/>
@@ -3672,7 +4199,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="34" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="16"/>
@@ -3689,7 +4216,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="16"/>
@@ -3706,7 +4233,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="16"/>
@@ -3723,7 +4250,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="16"/>
@@ -3740,7 +4267,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="16"/>
@@ -3757,7 +4284,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="16"/>
@@ -3774,7 +4301,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="16"/>
@@ -3791,7 +4318,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="16"/>
@@ -3808,7 +4335,7 @@
       <c r="N19" s="18"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="16"/>
@@ -3825,7 +4352,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="16"/>
@@ -3842,7 +4369,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="16"/>
@@ -3859,7 +4386,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="35" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="16"/>
@@ -3876,7 +4403,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="34" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="16"/>
@@ -3893,7 +4420,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="16"/>
@@ -3910,7 +4437,7 @@
       <c r="N25" s="18"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="16"/>
@@ -3927,7 +4454,7 @@
       <c r="N26" s="18"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="16"/>
@@ -3944,7 +4471,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="34" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="10"/>
       <c r="C28" s="16"/>
@@ -3961,7 +4488,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="16"/>
@@ -3978,7 +4505,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="16"/>
@@ -3995,7 +4522,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="16"/>
@@ -4012,7 +4539,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="16"/>
@@ -4029,7 +4556,7 @@
       <c r="N32" s="18"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="16"/>
@@ -4046,7 +4573,7 @@
       <c r="N33" s="18"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="16"/>
@@ -4063,7 +4590,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="16"/>
@@ -4080,7 +4607,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="16"/>
@@ -4097,7 +4624,7 @@
       <c r="N36" s="18"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="16"/>
@@ -4114,7 +4641,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="16"/>
@@ -4131,7 +4658,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="16"/>
@@ -4148,7 +4675,7 @@
       <c r="N39" s="18"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="16"/>
@@ -4165,7 +4692,7 @@
       <c r="N40" s="18"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="16"/>
@@ -4182,7 +4709,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="16"/>
@@ -4199,7 +4726,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="16"/>
@@ -4216,7 +4743,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="16"/>
@@ -4233,7 +4760,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="16"/>
@@ -4250,7 +4777,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="16"/>
@@ -4267,7 +4794,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="16"/>
@@ -4284,7 +4811,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="16"/>
@@ -4301,7 +4828,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="16"/>
@@ -4318,7 +4845,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="16"/>
@@ -4335,7 +4862,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="16"/>
@@ -4352,7 +4879,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="16"/>
@@ -4369,7 +4896,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="16"/>
@@ -4386,7 +4913,7 @@
       <c r="N53" s="18"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="16"/>
@@ -4403,7 +4930,7 @@
       <c r="N54" s="18"/>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="16"/>
@@ -4420,7 +4947,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="16"/>
@@ -4437,7 +4964,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="16"/>
@@ -4454,7 +4981,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="16"/>
@@ -4471,7 +4998,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="16"/>
@@ -4488,7 +5015,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="16"/>
@@ -4505,7 +5032,7 @@
       <c r="N60" s="18"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="16"/>
@@ -4522,7 +5049,7 @@
       <c r="N61" s="18"/>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="16"/>
@@ -4539,7 +5066,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="16"/>
@@ -4556,7 +5083,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="16"/>
@@ -4573,7 +5100,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="16"/>
@@ -4590,7 +5117,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="16"/>
@@ -4607,7 +5134,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="4"/>
     </row>
-    <row r="67" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="16"/>
@@ -4624,7 +5151,7 @@
       <c r="N67" s="18"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="16"/>
@@ -4641,7 +5168,7 @@
       <c r="N68" s="18"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="16"/>
@@ -4658,7 +5185,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="16"/>
@@ -4675,7 +5202,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="16"/>
@@ -4692,7 +5219,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="16"/>
@@ -4709,7 +5236,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="16"/>
@@ -4726,7 +5253,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="16"/>
@@ -4743,7 +5270,7 @@
       <c r="N74" s="18"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="16"/>
@@ -4760,7 +5287,7 @@
       <c r="N75" s="18"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="16"/>
@@ -4777,7 +5304,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="16"/>
@@ -4794,7 +5321,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="16"/>
@@ -4811,7 +5338,7 @@
       <c r="N78" s="18"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="16"/>
@@ -4828,7 +5355,7 @@
       <c r="N79" s="18"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="16"/>
@@ -4845,7 +5372,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="16"/>
@@ -4862,7 +5389,7 @@
       <c r="N81" s="18"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="16"/>
@@ -4879,7 +5406,7 @@
       <c r="N82" s="18"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="16"/>
@@ -4896,7 +5423,7 @@
       <c r="N83" s="18"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="16"/>
@@ -4913,7 +5440,7 @@
       <c r="N84" s="18"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="16"/>
@@ -4930,7 +5457,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="16"/>
@@ -4947,7 +5474,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="16"/>
@@ -4964,7 +5491,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="16"/>
@@ -4981,7 +5508,7 @@
       <c r="N88" s="18"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="16"/>
@@ -4998,7 +5525,7 @@
       <c r="N89" s="18"/>
       <c r="O89" s="4"/>
     </row>
-    <row r="90" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="16"/>
@@ -5015,7 +5542,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="4"/>
     </row>
-    <row r="91" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="16"/>
@@ -5032,7 +5559,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="4"/>
     </row>
-    <row r="92" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="16"/>
@@ -5049,7 +5576,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="4"/>
     </row>
-    <row r="93" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="16"/>
@@ -5066,7 +5593,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="4"/>
     </row>
-    <row r="94" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="16"/>
@@ -5083,7 +5610,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="4"/>
     </row>
-    <row r="95" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="16"/>
@@ -5100,7 +5627,7 @@
       <c r="N95" s="18"/>
       <c r="O95" s="4"/>
     </row>
-    <row r="96" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="16"/>
@@ -5117,7 +5644,7 @@
       <c r="N96" s="18"/>
       <c r="O96" s="4"/>
     </row>
-    <row r="97" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="16"/>
@@ -5134,7 +5661,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="16"/>
@@ -5151,7 +5678,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="16"/>
@@ -5168,7 +5695,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="4"/>
     </row>
-    <row r="100" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="16"/>
@@ -5185,7 +5712,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="4"/>
     </row>
-    <row r="101" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="16"/>
@@ -5202,7 +5729,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="4"/>
     </row>
-    <row r="102" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="16"/>
@@ -5219,7 +5746,7 @@
       <c r="N102" s="18"/>
       <c r="O102" s="4"/>
     </row>
-    <row r="103" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="16"/>
@@ -5236,7 +5763,7 @@
       <c r="N103" s="18"/>
       <c r="O103" s="4"/>
     </row>
-    <row r="104" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="16"/>
@@ -5253,7 +5780,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="4"/>
     </row>
-    <row r="105" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="16"/>
@@ -5270,7 +5797,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="4"/>
     </row>
-    <row r="106" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="16"/>
@@ -5287,7 +5814,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="4"/>
     </row>
-    <row r="107" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="16"/>
@@ -5304,7 +5831,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="4"/>
     </row>
-    <row r="108" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="16"/>
@@ -5321,7 +5848,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="4"/>
     </row>
-    <row r="109" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="16"/>
@@ -5338,7 +5865,7 @@
       <c r="N109" s="18"/>
       <c r="O109" s="4"/>
     </row>
-    <row r="110" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="16"/>
@@ -5355,7 +5882,7 @@
       <c r="N110" s="18"/>
       <c r="O110" s="4"/>
     </row>
-    <row r="111" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="16"/>
@@ -5372,7 +5899,7 @@
       <c r="N111" s="18"/>
       <c r="O111" s="4"/>
     </row>
-    <row r="112" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="16"/>
@@ -5389,7 +5916,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="4"/>
     </row>
-    <row r="113" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="16"/>
@@ -5406,7 +5933,7 @@
       <c r="N113" s="18"/>
       <c r="O113" s="4"/>
     </row>
-    <row r="114" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="16"/>
@@ -5423,7 +5950,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="4"/>
     </row>
-    <row r="115" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="16"/>
@@ -5440,7 +5967,7 @@
       <c r="N115" s="18"/>
       <c r="O115" s="4"/>
     </row>
-    <row r="116" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="16"/>
@@ -5457,7 +5984,7 @@
       <c r="N116" s="18"/>
       <c r="O116" s="4"/>
     </row>
-    <row r="117" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="16"/>
@@ -5474,7 +6001,7 @@
       <c r="N117" s="18"/>
       <c r="O117" s="4"/>
     </row>
-    <row r="118" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="16"/>
@@ -5491,7 +6018,7 @@
       <c r="N118" s="18"/>
       <c r="O118" s="4"/>
     </row>
-    <row r="119" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="16"/>
@@ -5508,7 +6035,7 @@
       <c r="N119" s="18"/>
       <c r="O119" s="4"/>
     </row>
-    <row r="120" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="16"/>
@@ -5525,7 +6052,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="4"/>
     </row>
-    <row r="121" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="16"/>
@@ -5542,7 +6069,7 @@
       <c r="N121" s="18"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="16"/>
@@ -5559,7 +6086,7 @@
       <c r="N122" s="18"/>
       <c r="O122" s="4"/>
     </row>
-    <row r="123" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="16"/>
@@ -5576,7 +6103,7 @@
       <c r="N123" s="18"/>
       <c r="O123" s="4"/>
     </row>
-    <row r="124" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="16"/>
@@ -5593,7 +6120,7 @@
       <c r="N124" s="18"/>
       <c r="O124" s="4"/>
     </row>
-    <row r="125" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="16"/>
@@ -5610,7 +6137,7 @@
       <c r="N125" s="18"/>
       <c r="O125" s="4"/>
     </row>
-    <row r="126" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="16"/>
@@ -5627,7 +6154,7 @@
       <c r="N126" s="18"/>
       <c r="O126" s="4"/>
     </row>
-    <row r="127" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="16"/>
@@ -5644,7 +6171,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="4"/>
     </row>
-    <row r="128" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="16"/>
@@ -5661,7 +6188,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="4"/>
     </row>
-    <row r="129" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="16"/>
@@ -5678,7 +6205,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="4"/>
     </row>
-    <row r="130" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="16"/>
@@ -5695,7 +6222,7 @@
       <c r="N130" s="18"/>
       <c r="O130" s="4"/>
     </row>
-    <row r="131" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="16"/>
@@ -5712,7 +6239,7 @@
       <c r="N131" s="18"/>
       <c r="O131" s="4"/>
     </row>
-    <row r="132" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="16"/>
@@ -5729,7 +6256,7 @@
       <c r="N132" s="18"/>
       <c r="O132" s="4"/>
     </row>
-    <row r="133" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="16"/>
@@ -5746,7 +6273,7 @@
       <c r="N133" s="18"/>
       <c r="O133" s="4"/>
     </row>
-    <row r="134" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="16"/>
@@ -5763,7 +6290,7 @@
       <c r="N134" s="18"/>
       <c r="O134" s="4"/>
     </row>
-    <row r="135" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="16"/>
@@ -5780,7 +6307,7 @@
       <c r="N135" s="18"/>
       <c r="O135" s="4"/>
     </row>
-    <row r="136" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="16"/>
@@ -5797,7 +6324,7 @@
       <c r="N136" s="18"/>
       <c r="O136" s="4"/>
     </row>
-    <row r="137" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="16"/>
@@ -5814,7 +6341,7 @@
       <c r="N137" s="18"/>
       <c r="O137" s="4"/>
     </row>
-    <row r="138" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="16"/>
@@ -5831,7 +6358,7 @@
       <c r="N138" s="18"/>
       <c r="O138" s="4"/>
     </row>
-    <row r="139" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="16"/>
@@ -5848,7 +6375,7 @@
       <c r="N139" s="18"/>
       <c r="O139" s="4"/>
     </row>
-    <row r="140" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="16"/>
@@ -5865,7 +6392,7 @@
       <c r="N140" s="18"/>
       <c r="O140" s="4"/>
     </row>
-    <row r="141" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="16"/>
@@ -5882,7 +6409,7 @@
       <c r="N141" s="18"/>
       <c r="O141" s="4"/>
     </row>
-    <row r="142" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="16"/>
@@ -5899,7 +6426,7 @@
       <c r="N142" s="18"/>
       <c r="O142" s="4"/>
     </row>
-    <row r="143" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="16"/>
@@ -5916,7 +6443,7 @@
       <c r="N143" s="18"/>
       <c r="O143" s="4"/>
     </row>
-    <row r="144" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="16"/>
@@ -5933,7 +6460,7 @@
       <c r="N144" s="18"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="16"/>
@@ -5950,7 +6477,7 @@
       <c r="N145" s="18"/>
       <c r="O145" s="4"/>
     </row>
-    <row r="146" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="16"/>
@@ -5967,7 +6494,7 @@
       <c r="N146" s="18"/>
       <c r="O146" s="4"/>
     </row>
-    <row r="147" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="16"/>
@@ -5984,7 +6511,7 @@
       <c r="N147" s="18"/>
       <c r="O147" s="4"/>
     </row>
-    <row r="148" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="16"/>
@@ -6001,7 +6528,7 @@
       <c r="N148" s="18"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="16"/>
@@ -6018,7 +6545,7 @@
       <c r="N149" s="18"/>
       <c r="O149" s="4"/>
     </row>
-    <row r="150" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="16"/>
@@ -6035,7 +6562,7 @@
       <c r="N150" s="18"/>
       <c r="O150" s="4"/>
     </row>
-    <row r="151" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="16"/>
@@ -6052,7 +6579,7 @@
       <c r="N151" s="18"/>
       <c r="O151" s="4"/>
     </row>
-    <row r="152" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="16"/>
@@ -6069,7 +6596,7 @@
       <c r="N152" s="18"/>
       <c r="O152" s="4"/>
     </row>
-    <row r="153" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="16"/>
@@ -6086,7 +6613,7 @@
       <c r="N153" s="18"/>
       <c r="O153" s="4"/>
     </row>
-    <row r="154" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="16"/>
@@ -6103,7 +6630,7 @@
       <c r="N154" s="18"/>
       <c r="O154" s="4"/>
     </row>
-    <row r="155" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="16"/>
@@ -6120,7 +6647,7 @@
       <c r="N155" s="18"/>
       <c r="O155" s="4"/>
     </row>
-    <row r="156" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="16"/>
@@ -6137,7 +6664,7 @@
       <c r="N156" s="18"/>
       <c r="O156" s="4"/>
     </row>
-    <row r="157" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="16"/>
@@ -6154,7 +6681,7 @@
       <c r="N157" s="18"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="16"/>
@@ -6171,7 +6698,7 @@
       <c r="N158" s="18"/>
       <c r="O158" s="4"/>
     </row>
-    <row r="159" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="16"/>
@@ -6188,7 +6715,7 @@
       <c r="N159" s="18"/>
       <c r="O159" s="4"/>
     </row>
-    <row r="160" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="16"/>
@@ -6205,7 +6732,7 @@
       <c r="N160" s="18"/>
       <c r="O160" s="4"/>
     </row>
-    <row r="161" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="16"/>
@@ -6222,7 +6749,7 @@
       <c r="N161" s="18"/>
       <c r="O161" s="4"/>
     </row>
-    <row r="162" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="16"/>
@@ -6239,7 +6766,7 @@
       <c r="N162" s="18"/>
       <c r="O162" s="4"/>
     </row>
-    <row r="163" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="16"/>
@@ -6256,7 +6783,7 @@
       <c r="N163" s="18"/>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="16"/>
@@ -6273,7 +6800,7 @@
       <c r="N164" s="18"/>
       <c r="O164" s="4"/>
     </row>
-    <row r="165" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="16"/>
@@ -6290,7 +6817,7 @@
       <c r="N165" s="18"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="16"/>
@@ -6307,7 +6834,7 @@
       <c r="N166" s="18"/>
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="16"/>
@@ -6324,7 +6851,7 @@
       <c r="N167" s="18"/>
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="16"/>
@@ -6341,7 +6868,7 @@
       <c r="N168" s="18"/>
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="16"/>
@@ -6358,7 +6885,7 @@
       <c r="N169" s="18"/>
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="16"/>
@@ -6375,7 +6902,7 @@
       <c r="N170" s="18"/>
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="16"/>
@@ -6392,7 +6919,7 @@
       <c r="N171" s="18"/>
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="16"/>
@@ -6409,7 +6936,7 @@
       <c r="N172" s="18"/>
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="16"/>
@@ -6426,7 +6953,7 @@
       <c r="N173" s="18"/>
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="16"/>
@@ -6443,7 +6970,7 @@
       <c r="N174" s="18"/>
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="16"/>
@@ -6460,7 +6987,7 @@
       <c r="N175" s="18"/>
       <c r="O175" s="4"/>
     </row>
-    <row r="176" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="16"/>
@@ -6477,7 +7004,7 @@
       <c r="N176" s="18"/>
       <c r="O176" s="4"/>
     </row>
-    <row r="177" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="16"/>
@@ -6494,7 +7021,7 @@
       <c r="N177" s="18"/>
       <c r="O177" s="4"/>
     </row>
-    <row r="178" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="16"/>
@@ -6511,7 +7038,7 @@
       <c r="N178" s="18"/>
       <c r="O178" s="4"/>
     </row>
-    <row r="179" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="16"/>
@@ -6528,7 +7055,7 @@
       <c r="N179" s="18"/>
       <c r="O179" s="4"/>
     </row>
-    <row r="180" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="16"/>
@@ -6545,7 +7072,7 @@
       <c r="N180" s="18"/>
       <c r="O180" s="4"/>
     </row>
-    <row r="181" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="16"/>
@@ -6562,7 +7089,7 @@
       <c r="N181" s="18"/>
       <c r="O181" s="4"/>
     </row>
-    <row r="182" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="16"/>
@@ -6579,7 +7106,7 @@
       <c r="N182" s="18"/>
       <c r="O182" s="4"/>
     </row>
-    <row r="183" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="16"/>
@@ -6596,7 +7123,7 @@
       <c r="N183" s="18"/>
       <c r="O183" s="4"/>
     </row>
-    <row r="184" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="16"/>
@@ -6613,7 +7140,7 @@
       <c r="N184" s="18"/>
       <c r="O184" s="4"/>
     </row>
-    <row r="185" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="16"/>
@@ -6630,7 +7157,7 @@
       <c r="N185" s="18"/>
       <c r="O185" s="4"/>
     </row>
-    <row r="186" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="16"/>
@@ -6647,7 +7174,7 @@
       <c r="N186" s="18"/>
       <c r="O186" s="4"/>
     </row>
-    <row r="187" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="16"/>
@@ -6664,7 +7191,7 @@
       <c r="N187" s="18"/>
       <c r="O187" s="4"/>
     </row>
-    <row r="188" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="16"/>
@@ -6681,7 +7208,7 @@
       <c r="N188" s="18"/>
       <c r="O188" s="4"/>
     </row>
-    <row r="189" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="16"/>
@@ -6698,7 +7225,7 @@
       <c r="N189" s="18"/>
       <c r="O189" s="4"/>
     </row>
-    <row r="190" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="16"/>
@@ -6715,7 +7242,7 @@
       <c r="N190" s="18"/>
       <c r="O190" s="4"/>
     </row>
-    <row r="191" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="16"/>
@@ -6732,7 +7259,7 @@
       <c r="N191" s="18"/>
       <c r="O191" s="4"/>
     </row>
-    <row r="192" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="16"/>
@@ -6749,7 +7276,7 @@
       <c r="N192" s="18"/>
       <c r="O192" s="4"/>
     </row>
-    <row r="193" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="16"/>
@@ -6766,7 +7293,7 @@
       <c r="N193" s="18"/>
       <c r="O193" s="4"/>
     </row>
-    <row r="194" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="16"/>
@@ -6783,7 +7310,7 @@
       <c r="N194" s="18"/>
       <c r="O194" s="4"/>
     </row>
-    <row r="195" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="16"/>
@@ -6800,7 +7327,7 @@
       <c r="N195" s="18"/>
       <c r="O195" s="4"/>
     </row>
-    <row r="196" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="16"/>
@@ -6817,7 +7344,7 @@
       <c r="N196" s="18"/>
       <c r="O196" s="4"/>
     </row>
-    <row r="197" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="16"/>
@@ -6834,7 +7361,7 @@
       <c r="N197" s="18"/>
       <c r="O197" s="4"/>
     </row>
-    <row r="198" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="16"/>
@@ -6851,7 +7378,7 @@
       <c r="N198" s="18"/>
       <c r="O198" s="4"/>
     </row>
-    <row r="199" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="16"/>
@@ -6868,7 +7395,7 @@
       <c r="N199" s="18"/>
       <c r="O199" s="4"/>
     </row>
-    <row r="200" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="16"/>
@@ -6885,7 +7412,7 @@
       <c r="N200" s="18"/>
       <c r="O200" s="4"/>
     </row>
-    <row r="201" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="16"/>
@@ -6902,7 +7429,7 @@
       <c r="N201" s="18"/>
       <c r="O201" s="4"/>
     </row>
-    <row r="202" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="16"/>
@@ -6919,7 +7446,7 @@
       <c r="N202" s="18"/>
       <c r="O202" s="4"/>
     </row>
-    <row r="203" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="16"/>
@@ -6936,7 +7463,7 @@
       <c r="N203" s="18"/>
       <c r="O203" s="4"/>
     </row>
-    <row r="204" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="16"/>
@@ -6953,7 +7480,7 @@
       <c r="N204" s="18"/>
       <c r="O204" s="4"/>
     </row>
-    <row r="205" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="16"/>
@@ -6970,7 +7497,7 @@
       <c r="N205" s="18"/>
       <c r="O205" s="4"/>
     </row>
-    <row r="206" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="16"/>
@@ -6987,7 +7514,7 @@
       <c r="N206" s="18"/>
       <c r="O206" s="4"/>
     </row>
-    <row r="207" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="16"/>
@@ -7004,7 +7531,7 @@
       <c r="N207" s="18"/>
       <c r="O207" s="4"/>
     </row>
-    <row r="208" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="16"/>
@@ -7021,7 +7548,7 @@
       <c r="N208" s="18"/>
       <c r="O208" s="4"/>
     </row>
-    <row r="209" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="16"/>
@@ -7038,7 +7565,7 @@
       <c r="N209" s="18"/>
       <c r="O209" s="4"/>
     </row>
-    <row r="210" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="16"/>
@@ -7055,7 +7582,7 @@
       <c r="N210" s="18"/>
       <c r="O210" s="4"/>
     </row>
-    <row r="211" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="16"/>
@@ -7072,7 +7599,7 @@
       <c r="N211" s="18"/>
       <c r="O211" s="4"/>
     </row>
-    <row r="212" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="16"/>
@@ -7089,7 +7616,7 @@
       <c r="N212" s="18"/>
       <c r="O212" s="4"/>
     </row>
-    <row r="213" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="16"/>
@@ -7106,7 +7633,7 @@
       <c r="N213" s="18"/>
       <c r="O213" s="4"/>
     </row>
-    <row r="214" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="16"/>
@@ -7123,7 +7650,7 @@
       <c r="N214" s="18"/>
       <c r="O214" s="4"/>
     </row>
-    <row r="215" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="16"/>
@@ -7140,7 +7667,7 @@
       <c r="N215" s="18"/>
       <c r="O215" s="4"/>
     </row>
-    <row r="216" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="16"/>
@@ -7157,7 +7684,7 @@
       <c r="N216" s="18"/>
       <c r="O216" s="4"/>
     </row>
-    <row r="217" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="16"/>
@@ -7174,7 +7701,7 @@
       <c r="N217" s="18"/>
       <c r="O217" s="4"/>
     </row>
-    <row r="218" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="16"/>
@@ -7191,7 +7718,7 @@
       <c r="N218" s="18"/>
       <c r="O218" s="4"/>
     </row>
-    <row r="219" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="16"/>
@@ -7208,7 +7735,7 @@
       <c r="N219" s="18"/>
       <c r="O219" s="4"/>
     </row>
-    <row r="220" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="16"/>
@@ -7225,7 +7752,7 @@
       <c r="N220" s="18"/>
       <c r="O220" s="4"/>
     </row>
-    <row r="221" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="16"/>
@@ -7242,7 +7769,7 @@
       <c r="N221" s="18"/>
       <c r="O221" s="4"/>
     </row>
-    <row r="222" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="16"/>
@@ -7259,7 +7786,7 @@
       <c r="N222" s="18"/>
       <c r="O222" s="4"/>
     </row>
-    <row r="223" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="16"/>
@@ -7276,7 +7803,7 @@
       <c r="N223" s="18"/>
       <c r="O223" s="4"/>
     </row>
-    <row r="224" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="16"/>
@@ -7293,7 +7820,7 @@
       <c r="N224" s="18"/>
       <c r="O224" s="4"/>
     </row>
-    <row r="225" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="16"/>
@@ -7310,7 +7837,7 @@
       <c r="N225" s="18"/>
       <c r="O225" s="4"/>
     </row>
-    <row r="226" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="16"/>
@@ -7327,7 +7854,7 @@
       <c r="N226" s="18"/>
       <c r="O226" s="4"/>
     </row>
-    <row r="227" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="16"/>
@@ -7344,7 +7871,7 @@
       <c r="N227" s="18"/>
       <c r="O227" s="4"/>
     </row>
-    <row r="228" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="16"/>
@@ -7361,7 +7888,7 @@
       <c r="N228" s="18"/>
       <c r="O228" s="4"/>
     </row>
-    <row r="229" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="16"/>
@@ -7378,7 +7905,7 @@
       <c r="N229" s="18"/>
       <c r="O229" s="4"/>
     </row>
-    <row r="230" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="16"/>
@@ -7395,7 +7922,7 @@
       <c r="N230" s="18"/>
       <c r="O230" s="4"/>
     </row>
-    <row r="231" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="16"/>
@@ -7412,7 +7939,7 @@
       <c r="N231" s="18"/>
       <c r="O231" s="4"/>
     </row>
-    <row r="232" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="16"/>
@@ -7429,7 +7956,7 @@
       <c r="N232" s="18"/>
       <c r="O232" s="4"/>
     </row>
-    <row r="233" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="16"/>
@@ -7446,7 +7973,7 @@
       <c r="N233" s="18"/>
       <c r="O233" s="4"/>
     </row>
-    <row r="234" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="16"/>
@@ -7463,7 +7990,7 @@
       <c r="N234" s="18"/>
       <c r="O234" s="4"/>
     </row>
-    <row r="235" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="16"/>
@@ -7480,7 +8007,7 @@
       <c r="N235" s="18"/>
       <c r="O235" s="4"/>
     </row>
-    <row r="236" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="16"/>
@@ -7497,7 +8024,7 @@
       <c r="N236" s="18"/>
       <c r="O236" s="4"/>
     </row>
-    <row r="237" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="16"/>
@@ -7514,7 +8041,7 @@
       <c r="N237" s="18"/>
       <c r="O237" s="4"/>
     </row>
-    <row r="238" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="16"/>
@@ -7531,7 +8058,7 @@
       <c r="N238" s="18"/>
       <c r="O238" s="4"/>
     </row>
-    <row r="239" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="16"/>
@@ -7548,7 +8075,7 @@
       <c r="N239" s="18"/>
       <c r="O239" s="4"/>
     </row>
-    <row r="240" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="16"/>
@@ -7565,7 +8092,7 @@
       <c r="N240" s="18"/>
       <c r="O240" s="4"/>
     </row>
-    <row r="241" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="16"/>
@@ -7582,7 +8109,7 @@
       <c r="N241" s="18"/>
       <c r="O241" s="4"/>
     </row>
-    <row r="242" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="16"/>
@@ -7599,7 +8126,7 @@
       <c r="N242" s="18"/>
       <c r="O242" s="4"/>
     </row>
-    <row r="243" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="16"/>
@@ -7616,7 +8143,7 @@
       <c r="N243" s="18"/>
       <c r="O243" s="4"/>
     </row>
-    <row r="244" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="16"/>
@@ -7633,7 +8160,7 @@
       <c r="N244" s="18"/>
       <c r="O244" s="4"/>
     </row>
-    <row r="245" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="16"/>
@@ -7650,7 +8177,7 @@
       <c r="N245" s="18"/>
       <c r="O245" s="4"/>
     </row>
-    <row r="246" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="16"/>
@@ -7667,7 +8194,7 @@
       <c r="N246" s="18"/>
       <c r="O246" s="4"/>
     </row>
-    <row r="247" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="16"/>
@@ -7684,7 +8211,7 @@
       <c r="N247" s="18"/>
       <c r="O247" s="4"/>
     </row>
-    <row r="248" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="16"/>
@@ -7701,7 +8228,7 @@
       <c r="N248" s="18"/>
       <c r="O248" s="4"/>
     </row>
-    <row r="249" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="16"/>
@@ -7718,7 +8245,7 @@
       <c r="N249" s="18"/>
       <c r="O249" s="4"/>
     </row>
-    <row r="250" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="16"/>
@@ -7735,7 +8262,7 @@
       <c r="N250" s="18"/>
       <c r="O250" s="4"/>
     </row>
-    <row r="251" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="16"/>
@@ -7752,7 +8279,7 @@
       <c r="N251" s="18"/>
       <c r="O251" s="4"/>
     </row>
-    <row r="252" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="16"/>
@@ -7769,7 +8296,7 @@
       <c r="N252" s="18"/>
       <c r="O252" s="4"/>
     </row>
-    <row r="253" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="16"/>
@@ -7786,7 +8313,7 @@
       <c r="N253" s="18"/>
       <c r="O253" s="4"/>
     </row>
-    <row r="254" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="16"/>
@@ -7803,7 +8330,7 @@
       <c r="N254" s="18"/>
       <c r="O254" s="4"/>
     </row>
-    <row r="255" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="16"/>
@@ -7820,7 +8347,7 @@
       <c r="N255" s="18"/>
       <c r="O255" s="4"/>
     </row>
-    <row r="256" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="16"/>
@@ -7837,7 +8364,7 @@
       <c r="N256" s="18"/>
       <c r="O256" s="4"/>
     </row>
-    <row r="257" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="16"/>
@@ -7854,7 +8381,7 @@
       <c r="N257" s="18"/>
       <c r="O257" s="4"/>
     </row>
-    <row r="258" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="16"/>
@@ -7871,7 +8398,7 @@
       <c r="N258" s="18"/>
       <c r="O258" s="4"/>
     </row>
-    <row r="259" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="16"/>
@@ -7888,7 +8415,7 @@
       <c r="N259" s="18"/>
       <c r="O259" s="4"/>
     </row>
-    <row r="260" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="16"/>
@@ -7905,7 +8432,7 @@
       <c r="N260" s="18"/>
       <c r="O260" s="4"/>
     </row>
-    <row r="261" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="16"/>
@@ -7922,7 +8449,7 @@
       <c r="N261" s="18"/>
       <c r="O261" s="4"/>
     </row>
-    <row r="262" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="16"/>
@@ -7939,7 +8466,7 @@
       <c r="N262" s="18"/>
       <c r="O262" s="4"/>
     </row>
-    <row r="263" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="16"/>
@@ -7956,7 +8483,7 @@
       <c r="N263" s="18"/>
       <c r="O263" s="4"/>
     </row>
-    <row r="264" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="16"/>
@@ -7973,7 +8500,7 @@
       <c r="N264" s="18"/>
       <c r="O264" s="4"/>
     </row>
-    <row r="265" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="16"/>
@@ -7990,7 +8517,7 @@
       <c r="N265" s="18"/>
       <c r="O265" s="4"/>
     </row>
-    <row r="266" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="16"/>
@@ -8007,7 +8534,7 @@
       <c r="N266" s="18"/>
       <c r="O266" s="4"/>
     </row>
-    <row r="267" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="16"/>
@@ -8024,7 +8551,7 @@
       <c r="N267" s="18"/>
       <c r="O267" s="4"/>
     </row>
-    <row r="268" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="16"/>
@@ -8041,7 +8568,7 @@
       <c r="N268" s="18"/>
       <c r="O268" s="4"/>
     </row>
-    <row r="269" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="16"/>
@@ -8058,7 +8585,7 @@
       <c r="N269" s="18"/>
       <c r="O269" s="4"/>
     </row>
-    <row r="270" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="16"/>
@@ -8075,7 +8602,7 @@
       <c r="N270" s="18"/>
       <c r="O270" s="4"/>
     </row>
-    <row r="271" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="16"/>
@@ -8092,7 +8619,7 @@
       <c r="N271" s="18"/>
       <c r="O271" s="4"/>
     </row>
-    <row r="272" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="16"/>
@@ -8109,7 +8636,7 @@
       <c r="N272" s="18"/>
       <c r="O272" s="4"/>
     </row>
-    <row r="273" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="16"/>
@@ -8126,7 +8653,7 @@
       <c r="N273" s="18"/>
       <c r="O273" s="4"/>
     </row>
-    <row r="274" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="16"/>
@@ -8143,7 +8670,7 @@
       <c r="N274" s="18"/>
       <c r="O274" s="4"/>
     </row>
-    <row r="275" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="16"/>
@@ -8160,7 +8687,7 @@
       <c r="N275" s="18"/>
       <c r="O275" s="4"/>
     </row>
-    <row r="276" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="16"/>
@@ -8177,7 +8704,7 @@
       <c r="N276" s="18"/>
       <c r="O276" s="4"/>
     </row>
-    <row r="277" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="16"/>
@@ -8194,7 +8721,7 @@
       <c r="N277" s="18"/>
       <c r="O277" s="4"/>
     </row>
-    <row r="278" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="16"/>
@@ -8211,7 +8738,7 @@
       <c r="N278" s="18"/>
       <c r="O278" s="4"/>
     </row>
-    <row r="279" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="16"/>
@@ -8228,7 +8755,7 @@
       <c r="N279" s="18"/>
       <c r="O279" s="4"/>
     </row>
-    <row r="280" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="16"/>
@@ -8245,7 +8772,7 @@
       <c r="N280" s="18"/>
       <c r="O280" s="4"/>
     </row>
-    <row r="281" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="16"/>
@@ -8262,7 +8789,7 @@
       <c r="N281" s="18"/>
       <c r="O281" s="4"/>
     </row>
-    <row r="282" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="16"/>
@@ -8279,7 +8806,7 @@
       <c r="N282" s="18"/>
       <c r="O282" s="4"/>
     </row>
-    <row r="283" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="16"/>
@@ -8296,7 +8823,7 @@
       <c r="N283" s="18"/>
       <c r="O283" s="4"/>
     </row>
-    <row r="284" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="16"/>
@@ -8313,7 +8840,7 @@
       <c r="N284" s="18"/>
       <c r="O284" s="4"/>
     </row>
-    <row r="285" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="16"/>
@@ -8330,7 +8857,7 @@
       <c r="N285" s="18"/>
       <c r="O285" s="4"/>
     </row>
-    <row r="286" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="16"/>
@@ -8347,7 +8874,7 @@
       <c r="N286" s="18"/>
       <c r="O286" s="4"/>
     </row>
-    <row r="287" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="16"/>
@@ -8364,7 +8891,7 @@
       <c r="N287" s="18"/>
       <c r="O287" s="4"/>
     </row>
-    <row r="288" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="16"/>
@@ -8381,7 +8908,7 @@
       <c r="N288" s="18"/>
       <c r="O288" s="4"/>
     </row>
-    <row r="289" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="16"/>
@@ -8398,7 +8925,7 @@
       <c r="N289" s="18"/>
       <c r="O289" s="4"/>
     </row>
-    <row r="290" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="16"/>
@@ -8415,7 +8942,7 @@
       <c r="N290" s="18"/>
       <c r="O290" s="4"/>
     </row>
-    <row r="291" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="16"/>
@@ -8432,7 +8959,7 @@
       <c r="N291" s="18"/>
       <c r="O291" s="4"/>
     </row>
-    <row r="292" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="16"/>
@@ -8449,7 +8976,7 @@
       <c r="N292" s="18"/>
       <c r="O292" s="4"/>
     </row>
-    <row r="293" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="16"/>
@@ -8466,7 +8993,7 @@
       <c r="N293" s="18"/>
       <c r="O293" s="4"/>
     </row>
-    <row r="294" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="16"/>
@@ -8483,7 +9010,7 @@
       <c r="N294" s="18"/>
       <c r="O294" s="4"/>
     </row>
-    <row r="295" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="16"/>
@@ -8500,7 +9027,7 @@
       <c r="N295" s="18"/>
       <c r="O295" s="4"/>
     </row>
-    <row r="296" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="16"/>
@@ -8517,7 +9044,7 @@
       <c r="N296" s="18"/>
       <c r="O296" s="4"/>
     </row>
-    <row r="297" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="16"/>
@@ -8534,7 +9061,7 @@
       <c r="N297" s="18"/>
       <c r="O297" s="4"/>
     </row>
-    <row r="298" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="16"/>
@@ -8551,7 +9078,7 @@
       <c r="N298" s="18"/>
       <c r="O298" s="4"/>
     </row>
-    <row r="299" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="16"/>
@@ -8568,7 +9095,7 @@
       <c r="N299" s="18"/>
       <c r="O299" s="4"/>
     </row>
-    <row r="300" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="16"/>
@@ -8585,7 +9112,7 @@
       <c r="N300" s="18"/>
       <c r="O300" s="4"/>
     </row>
-    <row r="301" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="16"/>
@@ -8602,7 +9129,7 @@
       <c r="N301" s="18"/>
       <c r="O301" s="4"/>
     </row>
-    <row r="302" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="16"/>
@@ -8619,7 +9146,7 @@
       <c r="N302" s="18"/>
       <c r="O302" s="4"/>
     </row>
-    <row r="303" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="16"/>
@@ -8636,7 +9163,7 @@
       <c r="N303" s="18"/>
       <c r="O303" s="4"/>
     </row>
-    <row r="304" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="16"/>
@@ -8653,7 +9180,7 @@
       <c r="N304" s="18"/>
       <c r="O304" s="4"/>
     </row>
-    <row r="305" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="16"/>
@@ -8670,7 +9197,7 @@
       <c r="N305" s="18"/>
       <c r="O305" s="4"/>
     </row>
-    <row r="306" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="16"/>
@@ -8687,7 +9214,7 @@
       <c r="N306" s="18"/>
       <c r="O306" s="4"/>
     </row>
-    <row r="307" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="16"/>
@@ -8704,7 +9231,7 @@
       <c r="N307" s="18"/>
       <c r="O307" s="4"/>
     </row>
-    <row r="308" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="16"/>
@@ -8721,7 +9248,7 @@
       <c r="N308" s="18"/>
       <c r="O308" s="4"/>
     </row>
-    <row r="309" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="16"/>
@@ -8738,7 +9265,7 @@
       <c r="N309" s="18"/>
       <c r="O309" s="4"/>
     </row>
-    <row r="310" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="16"/>
@@ -8755,7 +9282,7 @@
       <c r="N310" s="18"/>
       <c r="O310" s="4"/>
     </row>
-    <row r="311" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="16"/>
@@ -8772,7 +9299,7 @@
       <c r="N311" s="18"/>
       <c r="O311" s="4"/>
     </row>
-    <row r="312" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="16"/>
@@ -8789,7 +9316,7 @@
       <c r="N312" s="18"/>
       <c r="O312" s="4"/>
     </row>
-    <row r="313" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="16"/>
@@ -8806,7 +9333,7 @@
       <c r="N313" s="18"/>
       <c r="O313" s="4"/>
     </row>
-    <row r="314" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="16"/>
@@ -8823,7 +9350,7 @@
       <c r="N314" s="18"/>
       <c r="O314" s="4"/>
     </row>
-    <row r="315" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="16"/>
@@ -8840,7 +9367,7 @@
       <c r="N315" s="18"/>
       <c r="O315" s="4"/>
     </row>
-    <row r="316" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="16"/>
@@ -8857,7 +9384,7 @@
       <c r="N316" s="18"/>
       <c r="O316" s="4"/>
     </row>
-    <row r="317" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="16"/>
@@ -8874,7 +9401,7 @@
       <c r="N317" s="18"/>
       <c r="O317" s="4"/>
     </row>
-    <row r="318" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="16"/>
@@ -8891,7 +9418,7 @@
       <c r="N318" s="18"/>
       <c r="O318" s="4"/>
     </row>
-    <row r="319" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="16"/>
@@ -8908,7 +9435,7 @@
       <c r="N319" s="18"/>
       <c r="O319" s="4"/>
     </row>
-    <row r="320" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="16"/>
@@ -8925,7 +9452,7 @@
       <c r="N320" s="18"/>
       <c r="O320" s="4"/>
     </row>
-    <row r="321" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="16"/>
@@ -8942,7 +9469,7 @@
       <c r="N321" s="18"/>
       <c r="O321" s="4"/>
     </row>
-    <row r="322" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="16"/>
@@ -8959,7 +9486,7 @@
       <c r="N322" s="18"/>
       <c r="O322" s="4"/>
     </row>
-    <row r="323" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="16"/>
@@ -8976,7 +9503,7 @@
       <c r="N323" s="18"/>
       <c r="O323" s="4"/>
     </row>
-    <row r="324" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="16"/>
@@ -8993,7 +9520,7 @@
       <c r="N324" s="18"/>
       <c r="O324" s="4"/>
     </row>
-    <row r="325" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="16"/>
@@ -9010,7 +9537,7 @@
       <c r="N325" s="18"/>
       <c r="O325" s="4"/>
     </row>
-    <row r="326" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="16"/>
@@ -9027,7 +9554,7 @@
       <c r="N326" s="18"/>
       <c r="O326" s="4"/>
     </row>
-    <row r="327" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="16"/>
@@ -9044,7 +9571,7 @@
       <c r="N327" s="18"/>
       <c r="O327" s="4"/>
     </row>
-    <row r="328" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="16"/>
@@ -9061,7 +9588,7 @@
       <c r="N328" s="18"/>
       <c r="O328" s="4"/>
     </row>
-    <row r="329" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="16"/>
@@ -9078,7 +9605,7 @@
       <c r="N329" s="18"/>
       <c r="O329" s="4"/>
     </row>
-    <row r="330" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="16"/>
@@ -9095,7 +9622,7 @@
       <c r="N330" s="18"/>
       <c r="O330" s="4"/>
     </row>
-    <row r="331" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="16"/>
@@ -9112,7 +9639,7 @@
       <c r="N331" s="18"/>
       <c r="O331" s="4"/>
     </row>
-    <row r="332" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="16"/>
@@ -9129,7 +9656,7 @@
       <c r="N332" s="18"/>
       <c r="O332" s="4"/>
     </row>
-    <row r="333" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="16"/>
@@ -9146,7 +9673,7 @@
       <c r="N333" s="18"/>
       <c r="O333" s="4"/>
     </row>
-    <row r="334" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="16"/>
@@ -9163,7 +9690,7 @@
       <c r="N334" s="18"/>
       <c r="O334" s="4"/>
     </row>
-    <row r="335" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="16"/>
@@ -9180,7 +9707,7 @@
       <c r="N335" s="18"/>
       <c r="O335" s="4"/>
     </row>
-    <row r="336" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="16"/>
@@ -9197,7 +9724,7 @@
       <c r="N336" s="18"/>
       <c r="O336" s="4"/>
     </row>
-    <row r="337" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="16"/>
@@ -9214,7 +9741,7 @@
       <c r="N337" s="18"/>
       <c r="O337" s="4"/>
     </row>
-    <row r="338" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="16"/>
@@ -9231,7 +9758,7 @@
       <c r="N338" s="18"/>
       <c r="O338" s="4"/>
     </row>
-    <row r="339" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="16"/>
@@ -9248,7 +9775,7 @@
       <c r="N339" s="18"/>
       <c r="O339" s="4"/>
     </row>
-    <row r="340" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="16"/>
@@ -9265,7 +9792,7 @@
       <c r="N340" s="18"/>
       <c r="O340" s="4"/>
     </row>
-    <row r="341" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="16"/>
@@ -9282,7 +9809,7 @@
       <c r="N341" s="18"/>
       <c r="O341" s="4"/>
     </row>
-    <row r="342" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="16"/>
@@ -9299,7 +9826,7 @@
       <c r="N342" s="18"/>
       <c r="O342" s="4"/>
     </row>
-    <row r="343" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="16"/>
@@ -9316,7 +9843,7 @@
       <c r="N343" s="18"/>
       <c r="O343" s="4"/>
     </row>
-    <row r="344" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="16"/>
@@ -9333,7 +9860,7 @@
       <c r="N344" s="18"/>
       <c r="O344" s="4"/>
     </row>
-    <row r="345" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="16"/>
@@ -9350,7 +9877,7 @@
       <c r="N345" s="18"/>
       <c r="O345" s="4"/>
     </row>
-    <row r="346" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="16"/>
@@ -9367,7 +9894,7 @@
       <c r="N346" s="18"/>
       <c r="O346" s="4"/>
     </row>
-    <row r="347" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="16"/>
@@ -9384,7 +9911,7 @@
       <c r="N347" s="18"/>
       <c r="O347" s="4"/>
     </row>
-    <row r="348" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="16"/>
@@ -9401,7 +9928,7 @@
       <c r="N348" s="18"/>
       <c r="O348" s="4"/>
     </row>
-    <row r="349" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="16"/>
@@ -9418,7 +9945,7 @@
       <c r="N349" s="18"/>
       <c r="O349" s="4"/>
     </row>
-    <row r="350" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="16"/>
@@ -9435,7 +9962,7 @@
       <c r="N350" s="18"/>
       <c r="O350" s="4"/>
     </row>
-    <row r="351" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="16"/>
@@ -9452,7 +9979,7 @@
       <c r="N351" s="18"/>
       <c r="O351" s="4"/>
     </row>
-    <row r="352" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="16"/>
@@ -9469,7 +9996,7 @@
       <c r="N352" s="18"/>
       <c r="O352" s="4"/>
     </row>
-    <row r="353" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="16"/>
@@ -9486,7 +10013,7 @@
       <c r="N353" s="18"/>
       <c r="O353" s="4"/>
     </row>
-    <row r="354" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="16"/>
@@ -9503,7 +10030,7 @@
       <c r="N354" s="18"/>
       <c r="O354" s="4"/>
     </row>
-    <row r="355" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="16"/>
@@ -9520,7 +10047,7 @@
       <c r="N355" s="18"/>
       <c r="O355" s="4"/>
     </row>
-    <row r="356" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="16"/>
@@ -9537,7 +10064,7 @@
       <c r="N356" s="18"/>
       <c r="O356" s="4"/>
     </row>
-    <row r="357" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="16"/>
@@ -9554,7 +10081,7 @@
       <c r="N357" s="18"/>
       <c r="O357" s="4"/>
     </row>
-    <row r="358" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="16"/>
@@ -9571,7 +10098,7 @@
       <c r="N358" s="18"/>
       <c r="O358" s="4"/>
     </row>
-    <row r="359" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="16"/>
@@ -9588,7 +10115,7 @@
       <c r="N359" s="18"/>
       <c r="O359" s="4"/>
     </row>
-    <row r="360" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="16"/>
@@ -9605,7 +10132,7 @@
       <c r="N360" s="18"/>
       <c r="O360" s="4"/>
     </row>
-    <row r="361" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="16"/>
@@ -9622,7 +10149,7 @@
       <c r="N361" s="18"/>
       <c r="O361" s="4"/>
     </row>
-    <row r="362" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="16"/>
@@ -9639,7 +10166,7 @@
       <c r="N362" s="18"/>
       <c r="O362" s="4"/>
     </row>
-    <row r="363" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="16"/>
@@ -9656,7 +10183,7 @@
       <c r="N363" s="18"/>
       <c r="O363" s="4"/>
     </row>
-    <row r="364" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="16"/>
@@ -9673,7 +10200,7 @@
       <c r="N364" s="18"/>
       <c r="O364" s="4"/>
     </row>
-    <row r="365" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="16"/>
@@ -9690,7 +10217,7 @@
       <c r="N365" s="18"/>
       <c r="O365" s="4"/>
     </row>
-    <row r="366" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="16"/>
@@ -9707,7 +10234,7 @@
       <c r="N366" s="18"/>
       <c r="O366" s="4"/>
     </row>
-    <row r="367" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="16"/>
@@ -9724,7 +10251,7 @@
       <c r="N367" s="18"/>
       <c r="O367" s="4"/>
     </row>
-    <row r="368" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="16"/>
@@ -9741,7 +10268,7 @@
       <c r="N368" s="18"/>
       <c r="O368" s="4"/>
     </row>
-    <row r="369" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="16"/>
@@ -9758,7 +10285,7 @@
       <c r="N369" s="18"/>
       <c r="O369" s="4"/>
     </row>
-    <row r="370" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="16"/>
@@ -9775,7 +10302,7 @@
       <c r="N370" s="18"/>
       <c r="O370" s="4"/>
     </row>
-    <row r="371" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="16"/>
@@ -9792,7 +10319,7 @@
       <c r="N371" s="18"/>
       <c r="O371" s="4"/>
     </row>
-    <row r="372" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="16"/>
@@ -9809,7 +10336,7 @@
       <c r="N372" s="18"/>
       <c r="O372" s="4"/>
     </row>
-    <row r="373" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="16"/>
@@ -9826,7 +10353,7 @@
       <c r="N373" s="18"/>
       <c r="O373" s="4"/>
     </row>
-    <row r="374" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="16"/>
@@ -9843,7 +10370,7 @@
       <c r="N374" s="18"/>
       <c r="O374" s="4"/>
     </row>
-    <row r="375" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="16"/>
@@ -9860,7 +10387,7 @@
       <c r="N375" s="18"/>
       <c r="O375" s="4"/>
     </row>
-    <row r="376" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="16"/>
@@ -9877,7 +10404,7 @@
       <c r="N376" s="18"/>
       <c r="O376" s="4"/>
     </row>
-    <row r="377" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="16"/>
@@ -9894,7 +10421,7 @@
       <c r="N377" s="18"/>
       <c r="O377" s="4"/>
     </row>
-    <row r="378" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="16"/>
@@ -9911,7 +10438,7 @@
       <c r="N378" s="18"/>
       <c r="O378" s="4"/>
     </row>
-    <row r="379" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="16"/>
@@ -9928,7 +10455,7 @@
       <c r="N379" s="18"/>
       <c r="O379" s="4"/>
     </row>
-    <row r="380" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="16"/>
@@ -9945,7 +10472,7 @@
       <c r="N380" s="18"/>
       <c r="O380" s="4"/>
     </row>
-    <row r="381" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="16"/>
@@ -9962,7 +10489,7 @@
       <c r="N381" s="18"/>
       <c r="O381" s="4"/>
     </row>
-    <row r="382" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="16"/>
@@ -9979,7 +10506,7 @@
       <c r="N382" s="18"/>
       <c r="O382" s="4"/>
     </row>
-    <row r="383" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="16"/>
@@ -9996,7 +10523,7 @@
       <c r="N383" s="18"/>
       <c r="O383" s="4"/>
     </row>
-    <row r="384" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="16"/>
@@ -10013,7 +10540,7 @@
       <c r="N384" s="18"/>
       <c r="O384" s="4"/>
     </row>
-    <row r="385" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="16"/>
@@ -10030,7 +10557,7 @@
       <c r="N385" s="18"/>
       <c r="O385" s="4"/>
     </row>
-    <row r="386" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="16"/>
@@ -10047,7 +10574,7 @@
       <c r="N386" s="18"/>
       <c r="O386" s="4"/>
     </row>
-    <row r="387" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="16"/>
@@ -10064,7 +10591,7 @@
       <c r="N387" s="18"/>
       <c r="O387" s="4"/>
     </row>
-    <row r="388" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="16"/>
@@ -10081,7 +10608,7 @@
       <c r="N388" s="18"/>
       <c r="O388" s="4"/>
     </row>
-    <row r="389" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="16"/>
@@ -10098,7 +10625,7 @@
       <c r="N389" s="18"/>
       <c r="O389" s="4"/>
     </row>
-    <row r="390" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="16"/>
@@ -10115,7 +10642,7 @@
       <c r="N390" s="18"/>
       <c r="O390" s="4"/>
     </row>
-    <row r="391" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="16"/>
@@ -10132,7 +10659,7 @@
       <c r="N391" s="18"/>
       <c r="O391" s="4"/>
     </row>
-    <row r="392" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="16"/>
@@ -10149,7 +10676,7 @@
       <c r="N392" s="18"/>
       <c r="O392" s="4"/>
     </row>
-    <row r="393" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="16"/>
@@ -10166,7 +10693,7 @@
       <c r="N393" s="18"/>
       <c r="O393" s="4"/>
     </row>
-    <row r="394" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="16"/>
@@ -10183,7 +10710,7 @@
       <c r="N394" s="18"/>
       <c r="O394" s="4"/>
     </row>
-    <row r="395" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="16"/>
@@ -10200,7 +10727,7 @@
       <c r="N395" s="18"/>
       <c r="O395" s="4"/>
     </row>
-    <row r="396" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="16"/>
@@ -10217,7 +10744,7 @@
       <c r="N396" s="18"/>
       <c r="O396" s="4"/>
     </row>
-    <row r="397" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="16"/>
@@ -10234,7 +10761,7 @@
       <c r="N397" s="18"/>
       <c r="O397" s="4"/>
     </row>
-    <row r="398" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="16"/>
@@ -10251,7 +10778,7 @@
       <c r="N398" s="18"/>
       <c r="O398" s="4"/>
     </row>
-    <row r="399" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="16"/>
@@ -10268,7 +10795,7 @@
       <c r="N399" s="18"/>
       <c r="O399" s="4"/>
     </row>
-    <row r="400" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="16"/>
@@ -10285,7 +10812,7 @@
       <c r="N400" s="18"/>
       <c r="O400" s="4"/>
     </row>
-    <row r="401" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="16"/>
@@ -10302,7 +10829,7 @@
       <c r="N401" s="18"/>
       <c r="O401" s="4"/>
     </row>
-    <row r="402" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="16"/>
@@ -10319,7 +10846,7 @@
       <c r="N402" s="18"/>
       <c r="O402" s="4"/>
     </row>
-    <row r="403" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="16"/>
@@ -10336,7 +10863,7 @@
       <c r="N403" s="18"/>
       <c r="O403" s="4"/>
     </row>
-    <row r="404" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="16"/>
@@ -10353,7 +10880,7 @@
       <c r="N404" s="18"/>
       <c r="O404" s="4"/>
     </row>
-    <row r="405" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="16"/>
@@ -10370,7 +10897,7 @@
       <c r="N405" s="18"/>
       <c r="O405" s="4"/>
     </row>
-    <row r="406" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="16"/>
@@ -10387,7 +10914,7 @@
       <c r="N406" s="18"/>
       <c r="O406" s="4"/>
     </row>
-    <row r="407" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="16"/>
@@ -10404,7 +10931,7 @@
       <c r="N407" s="18"/>
       <c r="O407" s="4"/>
     </row>
-    <row r="408" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="16"/>
@@ -10421,7 +10948,7 @@
       <c r="N408" s="18"/>
       <c r="O408" s="4"/>
     </row>
-    <row r="409" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="16"/>
@@ -10438,7 +10965,7 @@
       <c r="N409" s="18"/>
       <c r="O409" s="4"/>
     </row>
-    <row r="410" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="16"/>
@@ -10455,7 +10982,7 @@
       <c r="N410" s="18"/>
       <c r="O410" s="4"/>
     </row>
-    <row r="411" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="16"/>
@@ -10472,7 +10999,7 @@
       <c r="N411" s="18"/>
       <c r="O411" s="4"/>
     </row>
-    <row r="412" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="16"/>
@@ -10489,7 +11016,7 @@
       <c r="N412" s="18"/>
       <c r="O412" s="4"/>
     </row>
-    <row r="413" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="16"/>
@@ -10506,7 +11033,7 @@
       <c r="N413" s="18"/>
       <c r="O413" s="4"/>
     </row>
-    <row r="414" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="16"/>
@@ -10523,7 +11050,7 @@
       <c r="N414" s="18"/>
       <c r="O414" s="4"/>
     </row>
-    <row r="415" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="16"/>
@@ -10540,7 +11067,7 @@
       <c r="N415" s="18"/>
       <c r="O415" s="4"/>
     </row>
-    <row r="416" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="16"/>
@@ -10557,7 +11084,7 @@
       <c r="N416" s="18"/>
       <c r="O416" s="4"/>
     </row>
-    <row r="417" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="16"/>
@@ -10574,7 +11101,7 @@
       <c r="N417" s="18"/>
       <c r="O417" s="4"/>
     </row>
-    <row r="418" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="16"/>
@@ -10591,7 +11118,7 @@
       <c r="N418" s="18"/>
       <c r="O418" s="4"/>
     </row>
-    <row r="419" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="16"/>
@@ -10608,7 +11135,7 @@
       <c r="N419" s="18"/>
       <c r="O419" s="4"/>
     </row>
-    <row r="420" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="16"/>
@@ -10625,7 +11152,7 @@
       <c r="N420" s="18"/>
       <c r="O420" s="4"/>
     </row>
-    <row r="421" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="16"/>
@@ -10642,7 +11169,7 @@
       <c r="N421" s="18"/>
       <c r="O421" s="4"/>
     </row>
-    <row r="422" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="16"/>
@@ -10659,7 +11186,7 @@
       <c r="N422" s="18"/>
       <c r="O422" s="4"/>
     </row>
-    <row r="423" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="16"/>
@@ -10676,7 +11203,7 @@
       <c r="N423" s="18"/>
       <c r="O423" s="4"/>
     </row>
-    <row r="424" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="16"/>
@@ -10693,7 +11220,7 @@
       <c r="N424" s="18"/>
       <c r="O424" s="4"/>
     </row>
-    <row r="425" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="16"/>
@@ -10710,7 +11237,7 @@
       <c r="N425" s="18"/>
       <c r="O425" s="4"/>
     </row>
-    <row r="426" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="16"/>
@@ -10727,7 +11254,7 @@
       <c r="N426" s="18"/>
       <c r="O426" s="4"/>
     </row>
-    <row r="427" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="16"/>
@@ -10744,7 +11271,7 @@
       <c r="N427" s="18"/>
       <c r="O427" s="4"/>
     </row>
-    <row r="428" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="16"/>
@@ -10761,7 +11288,7 @@
       <c r="N428" s="18"/>
       <c r="O428" s="4"/>
     </row>
-    <row r="429" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="16"/>
@@ -10778,7 +11305,7 @@
       <c r="N429" s="18"/>
       <c r="O429" s="4"/>
     </row>
-    <row r="430" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="16"/>
@@ -10795,7 +11322,7 @@
       <c r="N430" s="18"/>
       <c r="O430" s="4"/>
     </row>
-    <row r="431" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="16"/>
@@ -10812,7 +11339,7 @@
       <c r="N431" s="18"/>
       <c r="O431" s="4"/>
     </row>
-    <row r="432" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="16"/>
@@ -10829,7 +11356,7 @@
       <c r="N432" s="18"/>
       <c r="O432" s="4"/>
     </row>
-    <row r="433" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="16"/>
@@ -10846,7 +11373,7 @@
       <c r="N433" s="18"/>
       <c r="O433" s="4"/>
     </row>
-    <row r="434" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="16"/>
@@ -10863,7 +11390,7 @@
       <c r="N434" s="18"/>
       <c r="O434" s="4"/>
     </row>
-    <row r="435" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="16"/>
@@ -10880,7 +11407,7 @@
       <c r="N435" s="18"/>
       <c r="O435" s="4"/>
     </row>
-    <row r="436" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="16"/>
@@ -10897,7 +11424,7 @@
       <c r="N436" s="18"/>
       <c r="O436" s="4"/>
     </row>
-    <row r="437" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="16"/>
@@ -10914,7 +11441,7 @@
       <c r="N437" s="18"/>
       <c r="O437" s="4"/>
     </row>
-    <row r="438" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="16"/>
@@ -10931,7 +11458,7 @@
       <c r="N438" s="18"/>
       <c r="O438" s="4"/>
     </row>
-    <row r="439" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="16"/>
@@ -10948,7 +11475,7 @@
       <c r="N439" s="18"/>
       <c r="O439" s="4"/>
     </row>
-    <row r="440" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="16"/>
@@ -10965,7 +11492,7 @@
       <c r="N440" s="18"/>
       <c r="O440" s="4"/>
     </row>
-    <row r="441" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="16"/>
@@ -10982,7 +11509,7 @@
       <c r="N441" s="18"/>
       <c r="O441" s="4"/>
     </row>
-    <row r="442" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="16"/>
@@ -10999,7 +11526,7 @@
       <c r="N442" s="18"/>
       <c r="O442" s="4"/>
     </row>
-    <row r="443" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="16"/>
@@ -11016,7 +11543,7 @@
       <c r="N443" s="18"/>
       <c r="O443" s="4"/>
     </row>
-    <row r="444" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="16"/>
@@ -11033,7 +11560,7 @@
       <c r="N444" s="18"/>
       <c r="O444" s="4"/>
     </row>
-    <row r="445" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="16"/>
@@ -11050,7 +11577,7 @@
       <c r="N445" s="18"/>
       <c r="O445" s="4"/>
     </row>
-    <row r="446" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="16"/>
@@ -11067,7 +11594,7 @@
       <c r="N446" s="18"/>
       <c r="O446" s="4"/>
     </row>
-    <row r="447" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="16"/>
@@ -11084,7 +11611,7 @@
       <c r="N447" s="18"/>
       <c r="O447" s="4"/>
     </row>
-    <row r="448" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="16"/>
@@ -11101,7 +11628,7 @@
       <c r="N448" s="18"/>
       <c r="O448" s="4"/>
     </row>
-    <row r="449" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="16"/>
@@ -11118,7 +11645,7 @@
       <c r="N449" s="18"/>
       <c r="O449" s="4"/>
     </row>
-    <row r="450" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="16"/>
@@ -11135,7 +11662,7 @@
       <c r="N450" s="18"/>
       <c r="O450" s="4"/>
     </row>
-    <row r="451" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="16"/>
@@ -11152,7 +11679,7 @@
       <c r="N451" s="18"/>
       <c r="O451" s="4"/>
     </row>
-    <row r="452" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="16"/>
@@ -11169,7 +11696,7 @@
       <c r="N452" s="18"/>
       <c r="O452" s="4"/>
     </row>
-    <row r="453" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="16"/>
@@ -11186,7 +11713,7 @@
       <c r="N453" s="18"/>
       <c r="O453" s="4"/>
     </row>
-    <row r="454" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="16"/>
@@ -11203,7 +11730,7 @@
       <c r="N454" s="18"/>
       <c r="O454" s="4"/>
     </row>
-    <row r="455" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="16"/>
@@ -11220,7 +11747,7 @@
       <c r="N455" s="18"/>
       <c r="O455" s="4"/>
     </row>
-    <row r="456" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="16"/>
@@ -11237,7 +11764,7 @@
       <c r="N456" s="18"/>
       <c r="O456" s="4"/>
     </row>
-    <row r="457" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="16"/>
@@ -11254,7 +11781,7 @@
       <c r="N457" s="18"/>
       <c r="O457" s="4"/>
     </row>
-    <row r="458" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="16"/>
@@ -11271,7 +11798,7 @@
       <c r="N458" s="18"/>
       <c r="O458" s="4"/>
     </row>
-    <row r="459" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="16"/>
@@ -11288,7 +11815,7 @@
       <c r="N459" s="18"/>
       <c r="O459" s="4"/>
     </row>
-    <row r="460" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="16"/>
@@ -11305,7 +11832,7 @@
       <c r="N460" s="18"/>
       <c r="O460" s="4"/>
     </row>
-    <row r="461" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="16"/>
@@ -11322,7 +11849,7 @@
       <c r="N461" s="18"/>
       <c r="O461" s="4"/>
     </row>
-    <row r="462" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="16"/>
@@ -11339,7 +11866,7 @@
       <c r="N462" s="18"/>
       <c r="O462" s="4"/>
     </row>
-    <row r="463" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="16"/>
@@ -11356,7 +11883,7 @@
       <c r="N463" s="18"/>
       <c r="O463" s="4"/>
     </row>
-    <row r="464" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="16"/>
@@ -11373,7 +11900,7 @@
       <c r="N464" s="18"/>
       <c r="O464" s="4"/>
     </row>
-    <row r="465" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="16"/>
@@ -11390,7 +11917,7 @@
       <c r="N465" s="18"/>
       <c r="O465" s="4"/>
     </row>
-    <row r="466" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="16"/>
@@ -11407,7 +11934,7 @@
       <c r="N466" s="18"/>
       <c r="O466" s="4"/>
     </row>
-    <row r="467" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="16"/>
@@ -11424,7 +11951,7 @@
       <c r="N467" s="18"/>
       <c r="O467" s="4"/>
     </row>
-    <row r="468" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="16"/>
@@ -11441,7 +11968,7 @@
       <c r="N468" s="18"/>
       <c r="O468" s="4"/>
     </row>
-    <row r="469" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="16"/>
@@ -11458,7 +11985,7 @@
       <c r="N469" s="18"/>
       <c r="O469" s="4"/>
     </row>
-    <row r="470" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="16"/>
@@ -11475,7 +12002,7 @@
       <c r="N470" s="18"/>
       <c r="O470" s="4"/>
     </row>
-    <row r="471" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="16"/>
@@ -11492,7 +12019,7 @@
       <c r="N471" s="18"/>
       <c r="O471" s="4"/>
     </row>
-    <row r="472" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="16"/>
@@ -11509,7 +12036,7 @@
       <c r="N472" s="18"/>
       <c r="O472" s="4"/>
     </row>
-    <row r="473" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="16"/>
@@ -11526,7 +12053,7 @@
       <c r="N473" s="18"/>
       <c r="O473" s="4"/>
     </row>
-    <row r="474" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="16"/>
@@ -11543,7 +12070,7 @@
       <c r="N474" s="18"/>
       <c r="O474" s="4"/>
     </row>
-    <row r="475" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="16"/>
@@ -11560,7 +12087,7 @@
       <c r="N475" s="18"/>
       <c r="O475" s="4"/>
     </row>
-    <row r="476" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="16"/>
@@ -11577,7 +12104,7 @@
       <c r="N476" s="18"/>
       <c r="O476" s="4"/>
     </row>
-    <row r="477" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="16"/>
@@ -11594,7 +12121,7 @@
       <c r="N477" s="18"/>
       <c r="O477" s="4"/>
     </row>
-    <row r="478" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="16"/>
@@ -11611,7 +12138,7 @@
       <c r="N478" s="18"/>
       <c r="O478" s="4"/>
     </row>
-    <row r="479" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="16"/>
@@ -11628,7 +12155,7 @@
       <c r="N479" s="18"/>
       <c r="O479" s="4"/>
     </row>
-    <row r="480" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="16"/>
@@ -11645,7 +12172,7 @@
       <c r="N480" s="18"/>
       <c r="O480" s="4"/>
     </row>
-    <row r="481" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="16"/>
@@ -11662,7 +12189,7 @@
       <c r="N481" s="18"/>
       <c r="O481" s="4"/>
     </row>
-    <row r="482" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="16"/>
@@ -11679,7 +12206,7 @@
       <c r="N482" s="18"/>
       <c r="O482" s="4"/>
     </row>
-    <row r="483" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="16"/>
@@ -11696,7 +12223,7 @@
       <c r="N483" s="18"/>
       <c r="O483" s="4"/>
     </row>
-    <row r="484" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="16"/>
@@ -11713,7 +12240,7 @@
       <c r="N484" s="18"/>
       <c r="O484" s="4"/>
     </row>
-    <row r="485" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="16"/>
@@ -11730,7 +12257,7 @@
       <c r="N485" s="18"/>
       <c r="O485" s="4"/>
     </row>
-    <row r="486" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="16"/>
@@ -11747,7 +12274,7 @@
       <c r="N486" s="18"/>
       <c r="O486" s="4"/>
     </row>
-    <row r="487" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="16"/>
@@ -11764,7 +12291,7 @@
       <c r="N487" s="18"/>
       <c r="O487" s="4"/>
     </row>
-    <row r="488" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="16"/>
@@ -11781,7 +12308,7 @@
       <c r="N488" s="18"/>
       <c r="O488" s="4"/>
     </row>
-    <row r="489" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="16"/>
@@ -11798,7 +12325,7 @@
       <c r="N489" s="18"/>
       <c r="O489" s="4"/>
     </row>
-    <row r="490" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="16"/>
@@ -11815,7 +12342,7 @@
       <c r="N490" s="18"/>
       <c r="O490" s="4"/>
     </row>
-    <row r="491" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="16"/>
@@ -11832,7 +12359,7 @@
       <c r="N491" s="18"/>
       <c r="O491" s="4"/>
     </row>
-    <row r="492" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="16"/>
@@ -11849,7 +12376,7 @@
       <c r="N492" s="18"/>
       <c r="O492" s="4"/>
     </row>
-    <row r="493" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="16"/>
@@ -11866,7 +12393,7 @@
       <c r="N493" s="18"/>
       <c r="O493" s="4"/>
     </row>
-    <row r="494" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="16"/>
@@ -11883,7 +12410,7 @@
       <c r="N494" s="18"/>
       <c r="O494" s="4"/>
     </row>
-    <row r="495" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="16"/>
@@ -11900,7 +12427,7 @@
       <c r="N495" s="18"/>
       <c r="O495" s="4"/>
     </row>
-    <row r="496" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="16"/>
@@ -11917,7 +12444,7 @@
       <c r="N496" s="18"/>
       <c r="O496" s="4"/>
     </row>
-    <row r="497" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="16"/>
@@ -11934,7 +12461,7 @@
       <c r="N497" s="18"/>
       <c r="O497" s="4"/>
     </row>
-    <row r="498" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="16"/>
@@ -11951,7 +12478,7 @@
       <c r="N498" s="18"/>
       <c r="O498" s="4"/>
     </row>
-    <row r="499" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="16"/>
@@ -11968,7 +12495,7 @@
       <c r="N499" s="18"/>
       <c r="O499" s="4"/>
     </row>
-    <row r="500" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="16"/>
@@ -11985,7 +12512,7 @@
       <c r="N500" s="18"/>
       <c r="O500" s="4"/>
     </row>
-    <row r="501" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="16"/>
@@ -12002,7 +12529,7 @@
       <c r="N501" s="18"/>
       <c r="O501" s="4"/>
     </row>
-    <row r="502" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="16"/>
@@ -12019,7 +12546,7 @@
       <c r="N502" s="18"/>
       <c r="O502" s="4"/>
     </row>
-    <row r="503" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="16"/>
@@ -12036,7 +12563,7 @@
       <c r="N503" s="18"/>
       <c r="O503" s="4"/>
     </row>
-    <row r="504" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="16"/>
@@ -12053,7 +12580,7 @@
       <c r="N504" s="18"/>
       <c r="O504" s="4"/>
     </row>
-    <row r="505" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="16"/>
@@ -12070,7 +12597,7 @@
       <c r="N505" s="18"/>
       <c r="O505" s="4"/>
     </row>
-    <row r="506" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="16"/>
@@ -12087,7 +12614,7 @@
       <c r="N506" s="18"/>
       <c r="O506" s="4"/>
     </row>
-    <row r="507" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="16"/>
@@ -12104,7 +12631,7 @@
       <c r="N507" s="18"/>
       <c r="O507" s="4"/>
     </row>
-    <row r="508" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="16"/>
@@ -12121,7 +12648,7 @@
       <c r="N508" s="18"/>
       <c r="O508" s="4"/>
     </row>
-    <row r="509" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="16"/>
@@ -12138,7 +12665,7 @@
       <c r="N509" s="18"/>
       <c r="O509" s="4"/>
     </row>
-    <row r="510" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="16"/>
@@ -12155,7 +12682,7 @@
       <c r="N510" s="18"/>
       <c r="O510" s="4"/>
     </row>
-    <row r="511" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="16"/>
@@ -12172,7 +12699,7 @@
       <c r="N511" s="18"/>
       <c r="O511" s="4"/>
     </row>
-    <row r="512" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="16"/>
@@ -12189,7 +12716,7 @@
       <c r="N512" s="18"/>
       <c r="O512" s="4"/>
     </row>
-    <row r="513" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="16"/>
@@ -12206,7 +12733,7 @@
       <c r="N513" s="18"/>
       <c r="O513" s="4"/>
     </row>
-    <row r="514" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="16"/>
@@ -12223,7 +12750,7 @@
       <c r="N514" s="18"/>
       <c r="O514" s="4"/>
     </row>
-    <row r="515" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="16"/>
@@ -12240,7 +12767,7 @@
       <c r="N515" s="18"/>
       <c r="O515" s="4"/>
     </row>
-    <row r="516" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="16"/>
@@ -12257,7 +12784,7 @@
       <c r="N516" s="18"/>
       <c r="O516" s="4"/>
     </row>
-    <row r="517" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="16"/>
@@ -12274,7 +12801,7 @@
       <c r="N517" s="18"/>
       <c r="O517" s="4"/>
     </row>
-    <row r="518" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="16"/>
@@ -12291,7 +12818,7 @@
       <c r="N518" s="18"/>
       <c r="O518" s="4"/>
     </row>
-    <row r="519" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="16"/>
@@ -12308,7 +12835,7 @@
       <c r="N519" s="18"/>
       <c r="O519" s="4"/>
     </row>
-    <row r="520" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="16"/>
@@ -12325,7 +12852,7 @@
       <c r="N520" s="18"/>
       <c r="O520" s="4"/>
     </row>
-    <row r="521" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="16"/>
@@ -12342,7 +12869,7 @@
       <c r="N521" s="18"/>
       <c r="O521" s="4"/>
     </row>
-    <row r="522" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="16"/>
@@ -12359,7 +12886,7 @@
       <c r="N522" s="18"/>
       <c r="O522" s="4"/>
     </row>
-    <row r="523" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="16"/>
@@ -12376,7 +12903,7 @@
       <c r="N523" s="18"/>
       <c r="O523" s="4"/>
     </row>
-    <row r="524" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="16"/>
@@ -12393,7 +12920,7 @@
       <c r="N524" s="18"/>
       <c r="O524" s="4"/>
     </row>
-    <row r="525" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="16"/>
@@ -12410,7 +12937,7 @@
       <c r="N525" s="18"/>
       <c r="O525" s="4"/>
     </row>
-    <row r="526" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="16"/>
@@ -12427,7 +12954,7 @@
       <c r="N526" s="18"/>
       <c r="O526" s="4"/>
     </row>
-    <row r="527" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="16"/>
@@ -12444,7 +12971,7 @@
       <c r="N527" s="18"/>
       <c r="O527" s="4"/>
     </row>
-    <row r="528" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="16"/>
@@ -12461,7 +12988,7 @@
       <c r="N528" s="18"/>
       <c r="O528" s="4"/>
     </row>
-    <row r="529" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="16"/>
@@ -12478,7 +13005,7 @@
       <c r="N529" s="18"/>
       <c r="O529" s="4"/>
     </row>
-    <row r="530" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="16"/>
@@ -12495,7 +13022,7 @@
       <c r="N530" s="18"/>
       <c r="O530" s="4"/>
     </row>
-    <row r="531" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="16"/>
@@ -12512,7 +13039,7 @@
       <c r="N531" s="18"/>
       <c r="O531" s="4"/>
     </row>
-    <row r="532" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="16"/>
@@ -12529,7 +13056,7 @@
       <c r="N532" s="18"/>
       <c r="O532" s="4"/>
     </row>
-    <row r="533" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="16"/>
@@ -12546,7 +13073,7 @@
       <c r="N533" s="18"/>
       <c r="O533" s="4"/>
     </row>
-    <row r="534" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="16"/>
@@ -12563,7 +13090,7 @@
       <c r="N534" s="18"/>
       <c r="O534" s="4"/>
     </row>
-    <row r="535" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="16"/>
@@ -12580,7 +13107,7 @@
       <c r="N535" s="18"/>
       <c r="O535" s="4"/>
     </row>
-    <row r="536" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="16"/>
@@ -12597,7 +13124,7 @@
       <c r="N536" s="18"/>
       <c r="O536" s="4"/>
     </row>
-    <row r="537" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="16"/>
@@ -12614,7 +13141,7 @@
       <c r="N537" s="18"/>
       <c r="O537" s="4"/>
     </row>
-    <row r="538" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="16"/>
@@ -12631,7 +13158,7 @@
       <c r="N538" s="18"/>
       <c r="O538" s="4"/>
     </row>
-    <row r="539" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="16"/>
@@ -12648,7 +13175,7 @@
       <c r="N539" s="18"/>
       <c r="O539" s="4"/>
     </row>
-    <row r="540" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="16"/>
@@ -12665,7 +13192,7 @@
       <c r="N540" s="18"/>
       <c r="O540" s="4"/>
     </row>
-    <row r="541" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="16"/>
@@ -12682,7 +13209,7 @@
       <c r="N541" s="18"/>
       <c r="O541" s="4"/>
     </row>
-    <row r="542" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="16"/>
@@ -12699,7 +13226,7 @@
       <c r="N542" s="18"/>
       <c r="O542" s="4"/>
     </row>
-    <row r="543" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="16"/>
@@ -12716,7 +13243,7 @@
       <c r="N543" s="18"/>
       <c r="O543" s="4"/>
     </row>
-    <row r="544" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="16"/>
@@ -12733,7 +13260,7 @@
       <c r="N544" s="18"/>
       <c r="O544" s="4"/>
     </row>
-    <row r="545" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="16"/>
@@ -12750,7 +13277,7 @@
       <c r="N545" s="18"/>
       <c r="O545" s="4"/>
     </row>
-    <row r="546" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="16"/>
@@ -12767,7 +13294,7 @@
       <c r="N546" s="18"/>
       <c r="O546" s="4"/>
     </row>
-    <row r="547" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="16"/>
@@ -12784,7 +13311,7 @@
       <c r="N547" s="18"/>
       <c r="O547" s="4"/>
     </row>
-    <row r="548" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="16"/>
@@ -12801,7 +13328,7 @@
       <c r="N548" s="18"/>
       <c r="O548" s="4"/>
     </row>
-    <row r="549" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="16"/>
@@ -12818,7 +13345,7 @@
       <c r="N549" s="18"/>
       <c r="O549" s="4"/>
     </row>
-    <row r="550" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="16"/>
@@ -12835,7 +13362,7 @@
       <c r="N550" s="18"/>
       <c r="O550" s="4"/>
     </row>
-    <row r="551" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="16"/>
@@ -12852,7 +13379,7 @@
       <c r="N551" s="18"/>
       <c r="O551" s="4"/>
     </row>
-    <row r="552" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="16"/>
@@ -12869,7 +13396,7 @@
       <c r="N552" s="18"/>
       <c r="O552" s="4"/>
     </row>
-    <row r="553" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="16"/>
@@ -12886,7 +13413,7 @@
       <c r="N553" s="18"/>
       <c r="O553" s="4"/>
     </row>
-    <row r="554" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="16"/>
@@ -12903,7 +13430,7 @@
       <c r="N554" s="18"/>
       <c r="O554" s="4"/>
     </row>
-    <row r="555" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="16"/>
@@ -12920,7 +13447,7 @@
       <c r="N555" s="18"/>
       <c r="O555" s="4"/>
     </row>
-    <row r="556" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="16"/>
@@ -12937,7 +13464,7 @@
       <c r="N556" s="18"/>
       <c r="O556" s="4"/>
     </row>
-    <row r="557" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="16"/>
@@ -12954,7 +13481,7 @@
       <c r="N557" s="18"/>
       <c r="O557" s="4"/>
     </row>
-    <row r="558" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="16"/>
@@ -12971,7 +13498,7 @@
       <c r="N558" s="18"/>
       <c r="O558" s="4"/>
     </row>
-    <row r="559" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="16"/>
@@ -12988,7 +13515,7 @@
       <c r="N559" s="18"/>
       <c r="O559" s="4"/>
     </row>
-    <row r="560" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="16"/>
@@ -13005,7 +13532,7 @@
       <c r="N560" s="18"/>
       <c r="O560" s="4"/>
     </row>
-    <row r="561" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="16"/>
@@ -13022,7 +13549,7 @@
       <c r="N561" s="18"/>
       <c r="O561" s="4"/>
     </row>
-    <row r="562" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="16"/>
@@ -13039,7 +13566,7 @@
       <c r="N562" s="18"/>
       <c r="O562" s="4"/>
     </row>
-    <row r="563" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="16"/>
@@ -13056,7 +13583,7 @@
       <c r="N563" s="18"/>
       <c r="O563" s="4"/>
     </row>
-    <row r="564" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="16"/>
@@ -13073,7 +13600,7 @@
       <c r="N564" s="18"/>
       <c r="O564" s="4"/>
     </row>
-    <row r="565" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="16"/>
@@ -13090,7 +13617,7 @@
       <c r="N565" s="18"/>
       <c r="O565" s="4"/>
     </row>
-    <row r="566" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="16"/>
@@ -13107,7 +13634,7 @@
       <c r="N566" s="18"/>
       <c r="O566" s="4"/>
     </row>
-    <row r="567" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="16"/>
@@ -13124,7 +13651,7 @@
       <c r="N567" s="18"/>
       <c r="O567" s="4"/>
     </row>
-    <row r="568" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="16"/>
@@ -13141,7 +13668,7 @@
       <c r="N568" s="18"/>
       <c r="O568" s="4"/>
     </row>
-    <row r="569" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="16"/>
@@ -13158,7 +13685,7 @@
       <c r="N569" s="18"/>
       <c r="O569" s="4"/>
     </row>
-    <row r="570" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="16"/>
@@ -13175,7 +13702,7 @@
       <c r="N570" s="18"/>
       <c r="O570" s="4"/>
     </row>
-    <row r="571" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="16"/>
@@ -13192,7 +13719,7 @@
       <c r="N571" s="18"/>
       <c r="O571" s="4"/>
     </row>
-    <row r="572" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="16"/>
@@ -13209,7 +13736,7 @@
       <c r="N572" s="18"/>
       <c r="O572" s="4"/>
     </row>
-    <row r="573" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="16"/>
@@ -13226,7 +13753,7 @@
       <c r="N573" s="18"/>
       <c r="O573" s="4"/>
     </row>
-    <row r="574" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="16"/>
@@ -13243,7 +13770,7 @@
       <c r="N574" s="18"/>
       <c r="O574" s="4"/>
     </row>
-    <row r="575" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="16"/>
@@ -13260,7 +13787,7 @@
       <c r="N575" s="18"/>
       <c r="O575" s="4"/>
     </row>
-    <row r="576" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="16"/>
@@ -13277,7 +13804,7 @@
       <c r="N576" s="18"/>
       <c r="O576" s="4"/>
     </row>
-    <row r="577" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="16"/>
@@ -13294,7 +13821,7 @@
       <c r="N577" s="18"/>
       <c r="O577" s="4"/>
     </row>
-    <row r="578" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="16"/>
@@ -13311,7 +13838,7 @@
       <c r="N578" s="18"/>
       <c r="O578" s="4"/>
     </row>
-    <row r="579" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="16"/>
@@ -13328,7 +13855,7 @@
       <c r="N579" s="18"/>
       <c r="O579" s="4"/>
     </row>
-    <row r="580" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="16"/>
@@ -13345,7 +13872,7 @@
       <c r="N580" s="18"/>
       <c r="O580" s="4"/>
     </row>
-    <row r="581" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="16"/>
@@ -13362,7 +13889,7 @@
       <c r="N581" s="18"/>
       <c r="O581" s="4"/>
     </row>
-    <row r="582" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="16"/>
@@ -13379,7 +13906,7 @@
       <c r="N582" s="18"/>
       <c r="O582" s="4"/>
     </row>
-    <row r="583" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="16"/>
@@ -13396,7 +13923,7 @@
       <c r="N583" s="18"/>
       <c r="O583" s="4"/>
     </row>
-    <row r="584" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="16"/>
@@ -13413,7 +13940,7 @@
       <c r="N584" s="18"/>
       <c r="O584" s="4"/>
     </row>
-    <row r="585" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="16"/>
@@ -13430,7 +13957,7 @@
       <c r="N585" s="18"/>
       <c r="O585" s="4"/>
     </row>
-    <row r="586" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="16"/>
@@ -13447,7 +13974,7 @@
       <c r="N586" s="18"/>
       <c r="O586" s="4"/>
     </row>
-    <row r="587" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="16"/>
@@ -13464,7 +13991,7 @@
       <c r="N587" s="18"/>
       <c r="O587" s="4"/>
     </row>
-    <row r="588" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="16"/>
@@ -13481,7 +14008,7 @@
       <c r="N588" s="18"/>
       <c r="O588" s="4"/>
     </row>
-    <row r="589" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="16"/>
@@ -13498,7 +14025,7 @@
       <c r="N589" s="18"/>
       <c r="O589" s="4"/>
     </row>
-    <row r="590" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="16"/>
@@ -13515,7 +14042,7 @@
       <c r="N590" s="18"/>
       <c r="O590" s="4"/>
     </row>
-    <row r="591" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="16"/>
@@ -13532,7 +14059,7 @@
       <c r="N591" s="18"/>
       <c r="O591" s="4"/>
     </row>
-    <row r="592" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="16"/>
@@ -13549,7 +14076,7 @@
       <c r="N592" s="18"/>
       <c r="O592" s="4"/>
     </row>
-    <row r="593" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="16"/>
@@ -13566,7 +14093,7 @@
       <c r="N593" s="18"/>
       <c r="O593" s="4"/>
     </row>
-    <row r="594" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="16"/>
@@ -13583,7 +14110,7 @@
       <c r="N594" s="18"/>
       <c r="O594" s="4"/>
     </row>
-    <row r="595" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="16"/>
@@ -13600,7 +14127,7 @@
       <c r="N595" s="18"/>
       <c r="O595" s="4"/>
     </row>
-    <row r="596" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="16"/>
@@ -13617,7 +14144,7 @@
       <c r="N596" s="18"/>
       <c r="O596" s="4"/>
     </row>
-    <row r="597" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="16"/>
@@ -13634,7 +14161,7 @@
       <c r="N597" s="18"/>
       <c r="O597" s="4"/>
     </row>
-    <row r="598" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="16"/>
@@ -13651,7 +14178,7 @@
       <c r="N598" s="18"/>
       <c r="O598" s="4"/>
     </row>
-    <row r="599" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="16"/>
@@ -13668,7 +14195,7 @@
       <c r="N599" s="18"/>
       <c r="O599" s="4"/>
     </row>
-    <row r="600" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="16"/>
@@ -13685,7 +14212,7 @@
       <c r="N600" s="18"/>
       <c r="O600" s="4"/>
     </row>
-    <row r="601" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="16"/>
@@ -13702,7 +14229,7 @@
       <c r="N601" s="18"/>
       <c r="O601" s="4"/>
     </row>
-    <row r="602" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="16"/>
@@ -13719,7 +14246,7 @@
       <c r="N602" s="18"/>
       <c r="O602" s="4"/>
     </row>
-    <row r="603" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="16"/>
@@ -13736,7 +14263,7 @@
       <c r="N603" s="18"/>
       <c r="O603" s="4"/>
     </row>
-    <row r="604" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="16"/>
@@ -13753,7 +14280,7 @@
       <c r="N604" s="18"/>
       <c r="O604" s="4"/>
     </row>
-    <row r="605" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="16"/>
@@ -13770,7 +14297,7 @@
       <c r="N605" s="18"/>
       <c r="O605" s="4"/>
     </row>
-    <row r="606" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="16"/>
@@ -13787,7 +14314,7 @@
       <c r="N606" s="18"/>
       <c r="O606" s="4"/>
     </row>
-    <row r="607" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="16"/>
@@ -13804,7 +14331,7 @@
       <c r="N607" s="18"/>
       <c r="O607" s="4"/>
     </row>
-    <row r="608" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="16"/>
@@ -13821,7 +14348,7 @@
       <c r="N608" s="18"/>
       <c r="O608" s="4"/>
     </row>
-    <row r="609" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="16"/>
@@ -13838,7 +14365,7 @@
       <c r="N609" s="18"/>
       <c r="O609" s="4"/>
     </row>
-    <row r="610" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="16"/>
@@ -13855,7 +14382,7 @@
       <c r="N610" s="18"/>
       <c r="O610" s="4"/>
     </row>
-    <row r="611" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="16"/>
@@ -13872,7 +14399,7 @@
       <c r="N611" s="18"/>
       <c r="O611" s="4"/>
     </row>
-    <row r="612" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="16"/>
@@ -13889,7 +14416,7 @@
       <c r="N612" s="18"/>
       <c r="O612" s="4"/>
     </row>
-    <row r="613" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="16"/>
@@ -13906,7 +14433,7 @@
       <c r="N613" s="18"/>
       <c r="O613" s="4"/>
     </row>
-    <row r="614" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="16"/>
@@ -13923,7 +14450,7 @@
       <c r="N614" s="18"/>
       <c r="O614" s="4"/>
     </row>
-    <row r="615" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="16"/>
@@ -13940,7 +14467,7 @@
       <c r="N615" s="18"/>
       <c r="O615" s="4"/>
     </row>
-    <row r="616" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="16"/>
@@ -13957,7 +14484,7 @@
       <c r="N616" s="18"/>
       <c r="O616" s="4"/>
     </row>
-    <row r="617" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="16"/>
@@ -13974,7 +14501,7 @@
       <c r="N617" s="18"/>
       <c r="O617" s="4"/>
     </row>
-    <row r="618" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="16"/>
@@ -13991,7 +14518,7 @@
       <c r="N618" s="18"/>
       <c r="O618" s="4"/>
     </row>
-    <row r="619" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="16"/>
@@ -14008,7 +14535,7 @@
       <c r="N619" s="18"/>
       <c r="O619" s="4"/>
     </row>
-    <row r="620" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="16"/>
@@ -14025,7 +14552,7 @@
       <c r="N620" s="18"/>
       <c r="O620" s="4"/>
     </row>
-    <row r="621" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="16"/>
@@ -14042,7 +14569,7 @@
       <c r="N621" s="18"/>
       <c r="O621" s="4"/>
     </row>
-    <row r="622" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="16"/>
@@ -14059,7 +14586,7 @@
       <c r="N622" s="18"/>
       <c r="O622" s="4"/>
     </row>
-    <row r="623" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="16"/>
@@ -14076,7 +14603,7 @@
       <c r="N623" s="18"/>
       <c r="O623" s="4"/>
     </row>
-    <row r="624" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="16"/>
@@ -14093,7 +14620,7 @@
       <c r="N624" s="18"/>
       <c r="O624" s="4"/>
     </row>
-    <row r="625" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="16"/>
@@ -14110,7 +14637,7 @@
       <c r="N625" s="18"/>
       <c r="O625" s="4"/>
     </row>
-    <row r="626" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="16"/>
@@ -14127,7 +14654,7 @@
       <c r="N626" s="18"/>
       <c r="O626" s="4"/>
     </row>
-    <row r="627" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="16"/>
@@ -14144,7 +14671,7 @@
       <c r="N627" s="18"/>
       <c r="O627" s="4"/>
     </row>
-    <row r="628" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="16"/>
@@ -14161,7 +14688,7 @@
       <c r="N628" s="18"/>
       <c r="O628" s="4"/>
     </row>
-    <row r="629" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="16"/>
@@ -14178,7 +14705,7 @@
       <c r="N629" s="18"/>
       <c r="O629" s="4"/>
     </row>
-    <row r="630" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="16"/>
@@ -14195,7 +14722,7 @@
       <c r="N630" s="18"/>
       <c r="O630" s="4"/>
     </row>
-    <row r="631" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="16"/>
@@ -14212,7 +14739,7 @@
       <c r="N631" s="18"/>
       <c r="O631" s="4"/>
     </row>
-    <row r="632" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="16"/>
@@ -14229,7 +14756,7 @@
       <c r="N632" s="18"/>
       <c r="O632" s="4"/>
     </row>
-    <row r="633" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="16"/>
@@ -14246,7 +14773,7 @@
       <c r="N633" s="18"/>
       <c r="O633" s="4"/>
     </row>
-    <row r="634" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="16"/>
@@ -14263,7 +14790,7 @@
       <c r="N634" s="18"/>
       <c r="O634" s="4"/>
     </row>
-    <row r="635" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="16"/>
@@ -14280,7 +14807,7 @@
       <c r="N635" s="18"/>
       <c r="O635" s="4"/>
     </row>
-    <row r="636" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="16"/>
@@ -14297,7 +14824,7 @@
       <c r="N636" s="18"/>
       <c r="O636" s="4"/>
     </row>
-    <row r="637" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="16"/>
@@ -14314,7 +14841,7 @@
       <c r="N637" s="18"/>
       <c r="O637" s="4"/>
     </row>
-    <row r="638" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="16"/>
@@ -14331,7 +14858,7 @@
       <c r="N638" s="18"/>
       <c r="O638" s="4"/>
     </row>
-    <row r="639" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="16"/>
@@ -14348,7 +14875,7 @@
       <c r="N639" s="18"/>
       <c r="O639" s="4"/>
     </row>
-    <row r="640" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="16"/>
@@ -14365,7 +14892,7 @@
       <c r="N640" s="18"/>
       <c r="O640" s="4"/>
     </row>
-    <row r="641" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="16"/>
@@ -14382,7 +14909,7 @@
       <c r="N641" s="18"/>
       <c r="O641" s="4"/>
     </row>
-    <row r="642" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="16"/>
@@ -14399,7 +14926,7 @@
       <c r="N642" s="18"/>
       <c r="O642" s="4"/>
     </row>
-    <row r="643" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="16"/>
@@ -14416,7 +14943,7 @@
       <c r="N643" s="18"/>
       <c r="O643" s="4"/>
     </row>
-    <row r="644" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="16"/>
@@ -14433,7 +14960,7 @@
       <c r="N644" s="18"/>
       <c r="O644" s="4"/>
     </row>
-    <row r="645" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="16"/>
@@ -14450,7 +14977,7 @@
       <c r="N645" s="18"/>
       <c r="O645" s="4"/>
     </row>
-    <row r="646" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="16"/>
@@ -14467,7 +14994,7 @@
       <c r="N646" s="18"/>
       <c r="O646" s="4"/>
     </row>
-    <row r="647" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="16"/>
@@ -14484,7 +15011,7 @@
       <c r="N647" s="18"/>
       <c r="O647" s="4"/>
     </row>
-    <row r="648" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="16"/>
@@ -14501,57 +15028,57 @@
       <c r="N648" s="18"/>
       <c r="O648" s="4"/>
     </row>
-    <row r="649" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="697" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="L2:N2"/>
@@ -14559,34 +15086,34 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="3" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="2" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="1" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD697">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="11">
+    <cfRule dxfId="0" priority="11" type="notContainsBlanks">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>'#system'!$A$2:$A$50</xm:f>
           </x14:formula1>
